--- a/out/[1 1 1 1 1 1 1].xlsx
+++ b/out/[1 1 1 1 1 1 1].xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e3419c763e45079/Documents/doomoolmori_git/factor_attribution/out/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FA6230DDA9EC1C99824518E9C7A59137BCA0D375" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDDB38B5-C213-40CE-91C3-6A20EC438D8E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_weight_df" sheetId="1" r:id="rId1"/>
     <sheet name="top_10_df" sheetId="2" r:id="rId2"/>
     <sheet name="bottom_10_df" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -231,12 +237,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,8 +250,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,15 +304,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -341,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +394,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +446,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,14 +639,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,207 +668,207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02532679738562092</v>
+        <v>2.5326797385620919E-2</v>
       </c>
       <c r="C2">
-        <v>0.03758169934640523</v>
+        <v>3.7581699346405227E-2</v>
       </c>
       <c r="D2">
-        <v>0.04330065359477124</v>
+        <v>4.3300653594771241E-2</v>
       </c>
       <c r="E2">
-        <v>0.06086601307189542</v>
+        <v>6.0866013071895417E-2</v>
       </c>
       <c r="F2">
-        <v>0.1662581699346405</v>
+        <v>0.16625816993464049</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.03349673202614379</v>
+        <v>3.349673202614379E-2</v>
       </c>
       <c r="C3">
-        <v>0.05392156862745098</v>
+        <v>5.3921568627450983E-2</v>
       </c>
       <c r="D3">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E3">
-        <v>0.09477124183006536</v>
+        <v>9.4771241830065356E-2</v>
       </c>
       <c r="F3">
-        <v>0.06781045751633986</v>
+        <v>6.7810457516339864E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06495098039215687</v>
+        <v>6.4950980392156868E-2</v>
       </c>
       <c r="C4">
-        <v>0.08251633986928104</v>
+        <v>8.2516339869281044E-2</v>
       </c>
       <c r="D4">
-        <v>0.07352941176470588</v>
+        <v>7.3529411764705885E-2</v>
       </c>
       <c r="E4">
-        <v>0.0727124183006536</v>
+        <v>7.27124183006536E-2</v>
       </c>
       <c r="F4">
-        <v>0.03962418300653595</v>
+        <v>3.9624183006535953E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.0298202614379085</v>
+        <v>2.9820261437908498E-2</v>
       </c>
       <c r="C5">
-        <v>0.06535947712418301</v>
+        <v>6.535947712418301E-2</v>
       </c>
       <c r="D5">
-        <v>0.07026143790849673</v>
+        <v>7.0261437908496732E-2</v>
       </c>
       <c r="E5">
-        <v>0.08823529411764706</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F5">
-        <v>0.07965686274509803</v>
+        <v>7.9656862745098034E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03880718954248366</v>
+        <v>3.8807189542483661E-2</v>
       </c>
       <c r="C6">
-        <v>0.05514705882352941</v>
+        <v>5.514705882352941E-2</v>
       </c>
       <c r="D6">
-        <v>0.08619281045751634</v>
+        <v>8.6192810457516339E-2</v>
       </c>
       <c r="E6">
-        <v>0.1000816993464052</v>
+        <v>0.10008169934640521</v>
       </c>
       <c r="F6">
-        <v>0.05310457516339869</v>
+        <v>5.3104575163398691E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06086601307189542</v>
+        <v>6.0866013071895417E-2</v>
       </c>
       <c r="C7">
-        <v>0.07107843137254902</v>
+        <v>7.1078431372549017E-2</v>
       </c>
       <c r="D7">
-        <v>0.08537581699346405</v>
+        <v>8.5375816993464054E-2</v>
       </c>
       <c r="E7">
-        <v>0.07475490196078431</v>
+        <v>7.4754901960784312E-2</v>
       </c>
       <c r="F7">
-        <v>0.04125816993464052</v>
+        <v>4.1258169934640522E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01674836601307189</v>
+        <v>1.6748366013071891E-2</v>
       </c>
       <c r="C8">
-        <v>0.03431372549019608</v>
+        <v>3.4313725490196081E-2</v>
       </c>
       <c r="D8">
-        <v>0.04330065359477124</v>
+        <v>4.3300653594771241E-2</v>
       </c>
       <c r="E8">
-        <v>0.06944444444444445</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="F8">
-        <v>0.1695261437908497</v>
+        <v>0.16952614379084971</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.1405228758169935</v>
+        <v>0.14052287581699349</v>
       </c>
       <c r="C9">
-        <v>0.07761437908496732</v>
+        <v>7.7614379084967322E-2</v>
       </c>
       <c r="D9">
-        <v>0.04983660130718955</v>
+        <v>4.9836601307189553E-2</v>
       </c>
       <c r="E9">
-        <v>0.02818627450980392</v>
+        <v>2.8186274509803919E-2</v>
       </c>
       <c r="F9">
-        <v>0.03717320261437908</v>
+        <v>3.7173202614379078E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08619281045751634</v>
+        <v>8.6192810457516339E-2</v>
       </c>
       <c r="C10">
         <v>0.1004901960784314</v>
       </c>
       <c r="D10">
-        <v>0.08088235294117647</v>
+        <v>8.0882352941176475E-2</v>
       </c>
       <c r="E10">
-        <v>0.04370915032679738</v>
+        <v>4.3709150326797383E-2</v>
       </c>
       <c r="F10">
-        <v>0.02205882352941177</v>
+        <v>2.205882352941177E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.05841503267973856</v>
+        <v>5.8415032679738563E-2</v>
       </c>
       <c r="C11">
-        <v>0.06127450980392157</v>
+        <v>6.1274509803921573E-2</v>
       </c>
       <c r="D11">
-        <v>0.06209150326797386</v>
+        <v>6.2091503267973858E-2</v>
       </c>
       <c r="E11">
-        <v>0.0727124183006536</v>
+        <v>7.27124183006536E-2</v>
       </c>
       <c r="F11">
-        <v>0.07883986928104575</v>
+        <v>7.8839869281045749E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -814,112 +876,114 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="C12">
-        <v>0.08251633986928104</v>
+        <v>8.2516339869281044E-2</v>
       </c>
       <c r="D12">
-        <v>0.04452614379084967</v>
+        <v>4.4526143790849668E-2</v>
       </c>
       <c r="E12">
-        <v>0.02165032679738562</v>
+        <v>2.165032679738562E-2</v>
       </c>
       <c r="F12">
-        <v>0.008169934640522876</v>
+        <v>8.1699346405228763E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0559640522875817</v>
+        <v>5.5964052287581702E-2</v>
       </c>
       <c r="C13">
-        <v>0.06495098039215687</v>
+        <v>6.4950980392156868E-2</v>
       </c>
       <c r="D13">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E13">
-        <v>0.0821078431372549</v>
+        <v>8.2107843137254902E-2</v>
       </c>
       <c r="F13">
-        <v>0.04697712418300654</v>
+        <v>4.6977124183006543E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0755718954248366</v>
+        <v>7.5571895424836596E-2</v>
       </c>
       <c r="C14">
-        <v>0.06413398692810457</v>
+        <v>6.4133986928104569E-2</v>
       </c>
       <c r="D14">
-        <v>0.06862745098039216</v>
+        <v>6.8627450980392163E-2</v>
       </c>
       <c r="E14">
-        <v>0.06985294117647059</v>
+        <v>6.985294117647059E-2</v>
       </c>
       <c r="F14">
-        <v>0.05514705882352941</v>
+        <v>5.514705882352941E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.05718954248366013</v>
+        <v>5.7189542483660129E-2</v>
       </c>
       <c r="C15">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D15">
-        <v>0.05514705882352941</v>
+        <v>5.514705882352941E-2</v>
       </c>
       <c r="E15">
-        <v>0.059640522875817</v>
+        <v>5.9640522875816997E-2</v>
       </c>
       <c r="F15">
         <v>0.1058006535947712</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07965686274509803</v>
+        <v>7.9656862745098034E-2</v>
       </c>
       <c r="C16">
-        <v>0.09354575163398693</v>
+        <v>9.3545751633986929E-2</v>
       </c>
       <c r="D16">
-        <v>0.07026143790849673</v>
+        <v>7.0261437908496732E-2</v>
       </c>
       <c r="E16">
-        <v>0.06127450980392157</v>
+        <v>6.1274509803921573E-2</v>
       </c>
       <c r="F16">
-        <v>0.02859477124183006</v>
+        <v>2.8594771241830061E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>210</v>
       </c>
@@ -1166,22 +1230,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.088235181</v>
+        <v>8.8235180999999996E-2</v>
       </c>
       <c r="R2">
-        <v>8.364227233938928</v>
+        <v>8.3642272339389283</v>
       </c>
       <c r="S2">
-        <v>0.738019106</v>
+        <v>0.73801910599999998</v>
       </c>
       <c r="T2">
         <v>-0.1855</v>
       </c>
       <c r="U2">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="V2">
-        <v>0.710526316</v>
+        <v>0.71052631600000005</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1196,37 +1260,37 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.018518519</v>
+        <v>1.8518519000000001E-2</v>
       </c>
       <c r="AB2">
-        <v>0.045454545</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="AC2">
-        <v>0.073447715</v>
+        <v>7.3447714999999997E-2</v>
       </c>
       <c r="AD2">
-        <v>0.417294077</v>
+        <v>0.41729407699999999</v>
       </c>
       <c r="AE2">
         <v>1.04384133611691E+16</v>
       </c>
       <c r="AF2">
-        <v>0.050186981</v>
+        <v>5.0186980999999999E-2</v>
       </c>
       <c r="AG2">
         <v>4</v>
       </c>
       <c r="AH2">
-        <v>2.416666667</v>
+        <v>2.4166666669999999</v>
       </c>
       <c r="AI2">
-        <v>0.114744486</v>
+        <v>0.11474448600000001</v>
       </c>
       <c r="AJ2">
-        <v>-0.088576577</v>
+        <v>-8.8576577000000004E-2</v>
       </c>
       <c r="AK2">
-        <v>-0.128315618</v>
+        <v>-0.12831561799999999</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1241,82 +1305,82 @@
         <v>1</v>
       </c>
       <c r="AP2">
-        <v>-0.036456216</v>
+        <v>-3.6456216E-2</v>
       </c>
       <c r="AQ2">
-        <v>0.24796318</v>
+        <v>0.24796318000000001</v>
       </c>
       <c r="AR2">
-        <v>0.058208417</v>
+        <v>5.8208416999999998E-2</v>
       </c>
       <c r="AS2">
-        <v>-0.382998378</v>
+        <v>-0.38299837799999997</v>
       </c>
       <c r="AT2">
-        <v>-0.040096331</v>
+        <v>-4.0096330999999999E-2</v>
       </c>
       <c r="AU2">
         <v>1.858707455</v>
       </c>
       <c r="AV2">
-        <v>0.085664909</v>
+        <v>8.5664908999999997E-2</v>
       </c>
       <c r="AW2">
-        <v>-0.008739548</v>
+        <v>-8.7395479999999998E-3</v>
       </c>
       <c r="AX2">
-        <v>0.052180896</v>
+        <v>5.2180895999999997E-2</v>
       </c>
       <c r="AY2">
-        <v>0.027750496</v>
+        <v>2.7750495999999999E-2</v>
       </c>
       <c r="AZ2">
-        <v>0.152692285</v>
+        <v>0.15269228500000001</v>
       </c>
       <c r="BA2">
         <v>0.114489774</v>
       </c>
       <c r="BB2">
-        <v>-0.020167547</v>
+        <v>-2.0167547000000001E-2</v>
       </c>
       <c r="BC2">
         <v>-0.195068462</v>
       </c>
       <c r="BD2">
-        <v>0.132564103</v>
+        <v>0.13256410299999999</v>
       </c>
       <c r="BE2">
-        <v>0.139487179</v>
+        <v>0.13948717899999999</v>
       </c>
       <c r="BF2">
-        <v>0.002564103</v>
+        <v>2.5641029999999999E-3</v>
       </c>
       <c r="BG2">
         <v>0.148974359</v>
       </c>
       <c r="BH2">
-        <v>0.241025641</v>
+        <v>0.24102564100000001</v>
       </c>
       <c r="BI2">
-        <v>0.173076923</v>
+        <v>0.17307692299999999</v>
       </c>
       <c r="BJ2">
-        <v>0.062051282</v>
+        <v>6.2051281999999999E-2</v>
       </c>
       <c r="BK2">
-        <v>0.071282051</v>
+        <v>7.1282050999999999E-2</v>
       </c>
       <c r="BL2">
-        <v>0.005384615</v>
+        <v>5.3846149999999997E-3</v>
       </c>
       <c r="BM2">
-        <v>0.00025641</v>
+        <v>2.5640999999999999E-4</v>
       </c>
       <c r="BN2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>307</v>
       </c>
@@ -1366,52 +1430,52 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.116681581</v>
+        <v>0.11668158100000001</v>
       </c>
       <c r="R3">
-        <v>9.020950878766458</v>
+        <v>9.0209508787664578</v>
       </c>
       <c r="S3">
-        <v>1.052578811</v>
+        <v>1.0525788110000001</v>
       </c>
       <c r="T3">
-        <v>-0.1675</v>
+        <v>-0.16750000000000001</v>
       </c>
       <c r="U3">
-        <v>0.1743</v>
+        <v>0.17430000000000001</v>
       </c>
       <c r="V3">
-        <v>0.802631579</v>
+        <v>0.80263157900000004</v>
       </c>
       <c r="W3">
         <v>1.012042493</v>
       </c>
       <c r="X3">
-        <v>0.600011992</v>
+        <v>0.60001199199999999</v>
       </c>
       <c r="Y3">
-        <v>0.9629629629999999</v>
+        <v>0.96296296299999995</v>
       </c>
       <c r="Z3">
         <v>0.590909091</v>
       </c>
       <c r="AA3">
-        <v>0.5370370370000001</v>
+        <v>0.53703703700000005</v>
       </c>
       <c r="AB3">
-        <v>0.818181818</v>
+        <v>0.81818181800000001</v>
       </c>
       <c r="AC3">
-        <v>0.070187764</v>
+        <v>7.0187764E-2</v>
       </c>
       <c r="AD3">
-        <v>0.327820084</v>
+        <v>0.32782008400000001</v>
       </c>
       <c r="AE3">
         <v>18.96358723863602</v>
       </c>
       <c r="AF3">
-        <v>0.029224644</v>
+        <v>2.9224644000000001E-2</v>
       </c>
       <c r="AG3">
         <v>3.7</v>
@@ -1423,70 +1487,70 @@
         <v>0.112923539</v>
       </c>
       <c r="AJ3">
-        <v>-0.070183673</v>
+        <v>-7.0183673000000002E-2</v>
       </c>
       <c r="AK3">
         <v>-0.119094515</v>
       </c>
       <c r="AL3">
-        <v>0.010335697</v>
+        <v>1.0335697E-2</v>
       </c>
       <c r="AM3">
         <v>0.832903265</v>
       </c>
       <c r="AN3">
-        <v>0.885758158</v>
+        <v>0.88575815800000002</v>
       </c>
       <c r="AO3">
-        <v>0.856792065</v>
+        <v>0.85679206500000005</v>
       </c>
       <c r="AP3">
-        <v>0.031753267</v>
+        <v>3.1753267000000002E-2</v>
       </c>
       <c r="AQ3">
-        <v>0.6811251149999999</v>
+        <v>0.68112511499999995</v>
       </c>
       <c r="AR3">
-        <v>-0.031382704</v>
+        <v>-3.1382703999999997E-2</v>
       </c>
       <c r="AS3">
-        <v>-0.357364229</v>
+        <v>-0.35736422899999998</v>
       </c>
       <c r="AT3">
-        <v>0.066251719</v>
+        <v>6.6251719000000001E-2</v>
       </c>
       <c r="AU3">
-        <v>0.5399771880000001</v>
+        <v>0.53997718800000005</v>
       </c>
       <c r="AV3">
-        <v>0.259395183</v>
+        <v>0.25939518299999997</v>
       </c>
       <c r="AW3">
-        <v>-0.000209681</v>
+        <v>-2.09681E-4</v>
       </c>
       <c r="AX3">
-        <v>-0.066283629</v>
+        <v>-6.6283628999999997E-2</v>
       </c>
       <c r="AY3">
-        <v>-0.023680154</v>
+        <v>-2.3680153999999998E-2</v>
       </c>
       <c r="AZ3">
-        <v>0.044342444</v>
+        <v>4.4342444000000002E-2</v>
       </c>
       <c r="BA3">
-        <v>0.029411025</v>
+        <v>2.9411025E-2</v>
       </c>
       <c r="BB3">
-        <v>0.058795857</v>
+        <v>5.8795857E-2</v>
       </c>
       <c r="BC3">
-        <v>-0.086899114</v>
+        <v>-8.6899114E-2</v>
       </c>
       <c r="BD3">
-        <v>0.040512821</v>
+        <v>4.0512820999999997E-2</v>
       </c>
       <c r="BE3">
-        <v>0.02025641</v>
+        <v>2.0256409999999999E-2</v>
       </c>
       <c r="BF3">
         <v>0.107435897</v>
@@ -1498,25 +1562,25 @@
         <v>0.192820513</v>
       </c>
       <c r="BI3">
-        <v>0.195897436</v>
+        <v>0.19589743600000001</v>
       </c>
       <c r="BJ3">
-        <v>0.142820513</v>
+        <v>0.14282051300000001</v>
       </c>
       <c r="BK3">
-        <v>0.056666667</v>
+        <v>5.6666666999999997E-2</v>
       </c>
       <c r="BL3">
-        <v>0.049230769</v>
+        <v>4.9230769000000001E-2</v>
       </c>
       <c r="BM3">
-        <v>0.034102564</v>
+        <v>3.4102564000000002E-2</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>303</v>
       </c>
@@ -1569,7 +1633,7 @@
         <v>0.137371716</v>
       </c>
       <c r="R4">
-        <v>7.50347540346131</v>
+        <v>7.5034754034613096</v>
       </c>
       <c r="S4">
         <v>1.030765293</v>
@@ -1578,40 +1642,40 @@
         <v>-0.2243</v>
       </c>
       <c r="U4">
-        <v>0.1914</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="V4">
-        <v>0.763157895</v>
+        <v>0.76315789499999998</v>
       </c>
       <c r="W4">
-        <v>1.214706462</v>
+        <v>1.2147064620000001</v>
       </c>
       <c r="X4">
-        <v>0.754315166</v>
+        <v>0.75431516600000004</v>
       </c>
       <c r="Y4">
-        <v>0.9629629629999999</v>
+        <v>0.96296296299999995</v>
       </c>
       <c r="Z4">
-        <v>0.727272727</v>
+        <v>0.72727272700000001</v>
       </c>
       <c r="AA4">
-        <v>0.666666667</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="AB4">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AC4">
-        <v>0.06255532</v>
+        <v>6.2555319999999998E-2</v>
       </c>
       <c r="AD4">
-        <v>0.389661359</v>
+        <v>0.38966135899999998</v>
       </c>
       <c r="AE4">
-        <v>17.71738307731951</v>
+        <v>17.717383077319511</v>
       </c>
       <c r="AF4">
-        <v>0.037104883</v>
+        <v>3.7104882999999998E-2</v>
       </c>
       <c r="AG4">
         <v>3.230769231</v>
@@ -1620,82 +1684,82 @@
         <v>1.846153846</v>
       </c>
       <c r="AI4">
-        <v>0.068336993</v>
+        <v>6.8336992999999999E-2</v>
       </c>
       <c r="AJ4">
-        <v>-0.082772094</v>
+        <v>-8.2772094000000004E-2</v>
       </c>
       <c r="AK4">
         <v>-0.147437132</v>
       </c>
       <c r="AL4">
-        <v>0.011653668</v>
+        <v>1.1653668000000001E-2</v>
       </c>
       <c r="AM4">
-        <v>1.010073552</v>
+        <v>1.0100735519999999</v>
       </c>
       <c r="AN4">
-        <v>1.129790484</v>
+        <v>1.1297904839999999</v>
       </c>
       <c r="AO4">
-        <v>0.954527229</v>
+        <v>0.95452722899999998</v>
       </c>
       <c r="AP4">
-        <v>-0.010305248</v>
+        <v>-1.0305247999999999E-2</v>
       </c>
       <c r="AQ4">
-        <v>0.185643306</v>
+        <v>0.18564330600000001</v>
       </c>
       <c r="AR4">
         <v>0.463627185</v>
       </c>
       <c r="AS4">
-        <v>-0.015827782</v>
+        <v>-1.5827781999999999E-2</v>
       </c>
       <c r="AT4">
-        <v>-0.019150806</v>
+        <v>-1.9150805999999999E-2</v>
       </c>
       <c r="AU4">
         <v>0.116202926</v>
       </c>
       <c r="AV4">
-        <v>0.474048461</v>
+        <v>0.47404846099999998</v>
       </c>
       <c r="AW4">
-        <v>0.011707716</v>
+        <v>1.1707716E-2</v>
       </c>
       <c r="AX4">
-        <v>0.039292646</v>
+        <v>3.9292646000000001E-2</v>
       </c>
       <c r="AY4">
-        <v>0.011242125</v>
+        <v>1.1242125E-2</v>
       </c>
       <c r="AZ4">
-        <v>0.089440347</v>
+        <v>8.9440347000000003E-2</v>
       </c>
       <c r="BA4">
-        <v>0.318431075</v>
+        <v>0.31843107500000001</v>
       </c>
       <c r="BB4">
-        <v>-0.254150899</v>
+        <v>-0.25415089899999999</v>
       </c>
       <c r="BC4">
-        <v>-0.216605549</v>
+        <v>-0.21660554900000001</v>
       </c>
       <c r="BD4">
-        <v>0.106923077</v>
+        <v>0.10692307700000001</v>
       </c>
       <c r="BE4">
-        <v>0.003589744</v>
+        <v>3.5897440000000002E-3</v>
       </c>
       <c r="BF4">
-        <v>0.036923077</v>
+        <v>3.6923076999999999E-2</v>
       </c>
       <c r="BG4">
-        <v>0.057692308</v>
+        <v>5.7692307999999998E-2</v>
       </c>
       <c r="BH4">
-        <v>0.348717949</v>
+        <v>0.34871794900000003</v>
       </c>
       <c r="BI4">
         <v>0.179487179</v>
@@ -1704,19 +1768,19 @@
         <v>0.142564103</v>
       </c>
       <c r="BK4">
-        <v>0.02025641</v>
+        <v>2.0256409999999999E-2</v>
       </c>
       <c r="BL4">
-        <v>0.060769231</v>
+        <v>6.0769231E-2</v>
       </c>
       <c r="BM4">
-        <v>0.031025641</v>
+        <v>3.1025641E-2</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>298</v>
       </c>
@@ -1769,37 +1833,37 @@
         <v>0.135766266</v>
       </c>
       <c r="R5">
-        <v>6.327583890237174</v>
+        <v>6.3275838902371744</v>
       </c>
       <c r="S5">
-        <v>0.8590724360000001</v>
+        <v>0.85907243600000005</v>
       </c>
       <c r="T5">
-        <v>-0.242</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="U5">
         <v>0.251</v>
       </c>
       <c r="V5">
-        <v>0.763157895</v>
+        <v>0.76315789499999998</v>
       </c>
       <c r="W5">
         <v>1.289623894</v>
       </c>
       <c r="X5">
-        <v>0.909812357</v>
+        <v>0.90981235699999996</v>
       </c>
       <c r="Y5">
-        <v>0.925925926</v>
+        <v>0.92592592600000001</v>
       </c>
       <c r="Z5">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AA5">
-        <v>0.722222222</v>
+        <v>0.72222222199999997</v>
       </c>
       <c r="AB5">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AC5">
         <v>0.102880843</v>
@@ -1808,28 +1872,28 @@
         <v>0.446071512</v>
       </c>
       <c r="AE5">
-        <v>12.07995008661264</v>
+        <v>12.079950086612641</v>
       </c>
       <c r="AF5">
-        <v>0.043574227</v>
+        <v>4.3574227E-2</v>
       </c>
       <c r="AG5">
         <v>4</v>
       </c>
       <c r="AH5">
-        <v>2.181818182</v>
+        <v>2.1818181820000002</v>
       </c>
       <c r="AI5">
         <v>0.160419965</v>
       </c>
       <c r="AJ5">
-        <v>-0.105654456</v>
+        <v>-0.10565445599999999</v>
       </c>
       <c r="AK5">
-        <v>-0.171844165</v>
+        <v>-0.17184416499999999</v>
       </c>
       <c r="AL5">
-        <v>0.009256565</v>
+        <v>9.2565649999999996E-3</v>
       </c>
       <c r="AM5">
         <v>1.136036899</v>
@@ -1838,40 +1902,40 @@
         <v>1.169146129</v>
       </c>
       <c r="AO5">
-        <v>1.217787955</v>
+        <v>1.2177879549999999</v>
       </c>
       <c r="AP5">
-        <v>0.34597149</v>
+        <v>0.34597148999999999</v>
       </c>
       <c r="AQ5">
-        <v>0.64835233</v>
+        <v>0.64835233000000003</v>
       </c>
       <c r="AR5">
-        <v>-0.19118005</v>
+        <v>-0.19118004999999999</v>
       </c>
       <c r="AS5">
-        <v>0.04495613</v>
+        <v>4.4956129999999997E-2</v>
       </c>
       <c r="AT5">
-        <v>0.024118405</v>
+        <v>2.4118404999999999E-2</v>
       </c>
       <c r="AU5">
-        <v>0.045732187</v>
+        <v>4.5732187000000001E-2</v>
       </c>
       <c r="AV5">
         <v>0.395892193</v>
       </c>
       <c r="AW5">
-        <v>0.03014957</v>
+        <v>3.0149570000000001E-2</v>
       </c>
       <c r="AX5">
-        <v>-0.024765704</v>
+        <v>-2.4765703999999999E-2</v>
       </c>
       <c r="AY5">
-        <v>-0.008816207</v>
+        <v>-8.8162069999999995E-3</v>
       </c>
       <c r="AZ5">
-        <v>0.020952207</v>
+        <v>2.0952207E-2</v>
       </c>
       <c r="BA5">
         <v>-0.121677589</v>
@@ -1886,16 +1950,16 @@
         <v>0.17025641</v>
       </c>
       <c r="BE5">
-        <v>0.007948718</v>
+        <v>7.9487180000000004E-3</v>
       </c>
       <c r="BF5">
-        <v>0.073333333</v>
+        <v>7.3333333000000001E-2</v>
       </c>
       <c r="BG5">
-        <v>0.036410256</v>
+        <v>3.6410256000000002E-2</v>
       </c>
       <c r="BH5">
-        <v>0.257179487</v>
+        <v>0.25717948699999998</v>
       </c>
       <c r="BI5">
         <v>0.115128205</v>
@@ -1904,19 +1968,19 @@
         <v>0.165128205</v>
       </c>
       <c r="BK5">
-        <v>0.053589744</v>
+        <v>5.3589744000000002E-2</v>
       </c>
       <c r="BL5">
-        <v>0.08820512799999999</v>
+        <v>8.8205127999999994E-2</v>
       </c>
       <c r="BM5">
-        <v>0.00025641</v>
+        <v>2.5640999999999999E-4</v>
       </c>
       <c r="BN5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>256</v>
       </c>
@@ -1966,52 +2030,52 @@
         <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>0.114415732</v>
+        <v>0.11441573200000001</v>
       </c>
       <c r="R6">
-        <v>8.765813439787241</v>
+        <v>8.7658134397872409</v>
       </c>
       <c r="S6">
-        <v>1.002946963</v>
+        <v>1.0029469630000001</v>
       </c>
       <c r="T6">
         <v>-0.2039</v>
       </c>
       <c r="U6">
-        <v>0.1539</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="V6">
-        <v>0.789473684</v>
+        <v>0.78947368399999995</v>
       </c>
       <c r="W6">
-        <v>1.008940115</v>
+        <v>1.0089401149999999</v>
       </c>
       <c r="X6">
-        <v>0.619360578</v>
+        <v>0.61936057799999999</v>
       </c>
       <c r="Y6">
-        <v>0.981481481</v>
+        <v>0.98148148099999999</v>
       </c>
       <c r="Z6">
-        <v>0.681818182</v>
+        <v>0.68181818199999999</v>
       </c>
       <c r="AA6">
-        <v>0.462962963</v>
+        <v>0.46296296300000001</v>
       </c>
       <c r="AB6">
-        <v>0.772727273</v>
+        <v>0.77272727299999999</v>
       </c>
       <c r="AC6">
-        <v>0.072454646</v>
+        <v>7.2454645999999998E-2</v>
       </c>
       <c r="AD6">
-        <v>0.327641313</v>
+        <v>0.32764131299999999</v>
       </c>
       <c r="AE6">
-        <v>16.6349421684572</v>
+        <v>16.634942168457201</v>
       </c>
       <c r="AF6">
-        <v>0.031793624</v>
+        <v>3.1793623999999999E-2</v>
       </c>
       <c r="AG6">
         <v>3.9</v>
@@ -2020,103 +2084,103 @@
         <v>2.1</v>
       </c>
       <c r="AI6">
-        <v>0.147968151</v>
+        <v>0.14796815099999999</v>
       </c>
       <c r="AJ6">
-        <v>-0.077749633</v>
+        <v>-7.7749632999999999E-2</v>
       </c>
       <c r="AK6">
         <v>-0.143197664</v>
       </c>
       <c r="AL6">
-        <v>0.010006977</v>
+        <v>1.0006977E-2</v>
       </c>
       <c r="AM6">
-        <v>0.829571518</v>
+        <v>0.82957151799999995</v>
       </c>
       <c r="AN6">
-        <v>0.777878221</v>
+        <v>0.77787822100000004</v>
       </c>
       <c r="AO6">
-        <v>0.925151788</v>
+        <v>0.92515178799999997</v>
       </c>
       <c r="AP6">
-        <v>0.124764674</v>
+        <v>0.12476467400000001</v>
       </c>
       <c r="AQ6">
-        <v>0.744123669</v>
+        <v>0.74412366900000004</v>
       </c>
       <c r="AR6">
-        <v>-0.041104663</v>
+        <v>-4.1104663E-2</v>
       </c>
       <c r="AS6">
-        <v>-0.253256034</v>
+        <v>-0.25325603400000002</v>
       </c>
       <c r="AT6">
-        <v>0.420639297</v>
+        <v>0.42063929700000002</v>
       </c>
       <c r="AU6">
-        <v>0.153416532</v>
+        <v>0.15341653199999999</v>
       </c>
       <c r="AV6">
-        <v>0.075529321</v>
+        <v>7.5529320999999996E-2</v>
       </c>
       <c r="AW6">
-        <v>-0.001745001</v>
+        <v>-1.7450009999999999E-3</v>
       </c>
       <c r="AX6">
-        <v>-0.067199889</v>
+        <v>-6.7199888999999999E-2</v>
       </c>
       <c r="AY6">
         <v>-0.186094485</v>
       </c>
       <c r="AZ6">
-        <v>-0.040299153</v>
+        <v>-4.0299152999999997E-2</v>
       </c>
       <c r="BA6">
-        <v>-0.029089095</v>
+        <v>-2.9089094999999999E-2</v>
       </c>
       <c r="BB6">
-        <v>0.043298967</v>
+        <v>4.3298967000000001E-2</v>
       </c>
       <c r="BC6">
-        <v>0.303790131</v>
+        <v>0.30379013100000002</v>
       </c>
       <c r="BD6">
         <v>0.112820513</v>
       </c>
       <c r="BE6">
-        <v>0.034615385</v>
+        <v>3.4615384999999999E-2</v>
       </c>
       <c r="BF6">
-        <v>0.283333333</v>
+        <v>0.28333333300000002</v>
       </c>
       <c r="BG6">
         <v>0.117435897</v>
       </c>
       <c r="BH6">
-        <v>0.102307692</v>
+        <v>0.10230769200000001</v>
       </c>
       <c r="BI6">
-        <v>0.059230769</v>
+        <v>5.9230769000000003E-2</v>
       </c>
       <c r="BJ6">
         <v>0.134615385</v>
       </c>
       <c r="BK6">
-        <v>0.051794872</v>
+        <v>5.1794871999999999E-2</v>
       </c>
       <c r="BL6">
-        <v>0.062564103</v>
+        <v>6.2564102999999996E-2</v>
       </c>
       <c r="BM6">
-        <v>0.00974359</v>
+        <v>9.7435899999999999E-3</v>
       </c>
       <c r="BN6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>309</v>
       </c>
@@ -2169,40 +2233,40 @@
         <v>0.10871498</v>
       </c>
       <c r="R7">
-        <v>9.710681697429491</v>
+        <v>9.7106816974294912</v>
       </c>
       <c r="S7">
-        <v>1.055696566</v>
+        <v>1.0556965659999999</v>
       </c>
       <c r="T7">
-        <v>-0.1805</v>
+        <v>-0.18049999999999999</v>
       </c>
       <c r="U7">
         <v>0.1361</v>
       </c>
       <c r="V7">
-        <v>0.789473684</v>
+        <v>0.78947368399999995</v>
       </c>
       <c r="W7">
-        <v>0.973482775</v>
+        <v>0.97348277500000002</v>
       </c>
       <c r="X7">
-        <v>0.6386306</v>
+        <v>0.63863060000000005</v>
       </c>
       <c r="Y7">
-        <v>0.981481481</v>
+        <v>0.98148148099999999</v>
       </c>
       <c r="Z7">
-        <v>0.681818182</v>
+        <v>0.68181818199999999</v>
       </c>
       <c r="AA7">
-        <v>0.481481481</v>
+        <v>0.48148148099999999</v>
       </c>
       <c r="AB7">
-        <v>0.772727273</v>
+        <v>0.77272727299999999</v>
       </c>
       <c r="AC7">
-        <v>0.055056919</v>
+        <v>5.5056919000000003E-2</v>
       </c>
       <c r="AD7">
         <v>0.303991024</v>
@@ -2211,82 +2275,82 @@
         <v>19.79163916453474</v>
       </c>
       <c r="AF7">
-        <v>0.028092673</v>
+        <v>2.8092672999999999E-2</v>
       </c>
       <c r="AG7">
-        <v>3.166666667</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="AH7">
-        <v>1.833333333</v>
+        <v>1.8333333329999999</v>
       </c>
       <c r="AI7">
-        <v>0.084933127</v>
+        <v>8.4933126999999997E-2</v>
       </c>
       <c r="AJ7">
-        <v>-0.070056667</v>
+        <v>-7.0056667000000003E-2</v>
       </c>
       <c r="AK7">
         <v>-0.118210707</v>
       </c>
       <c r="AL7">
-        <v>0.00947717</v>
+        <v>9.47717E-3</v>
       </c>
       <c r="AM7">
-        <v>0.781986618</v>
+        <v>0.78198661800000002</v>
       </c>
       <c r="AN7">
-        <v>0.66792217</v>
+        <v>0.66792216999999998</v>
       </c>
       <c r="AO7">
-        <v>0.8010438479999999</v>
+        <v>0.80104384799999995</v>
       </c>
       <c r="AP7">
-        <v>-0.033874789</v>
+        <v>-3.3874789000000002E-2</v>
       </c>
       <c r="AQ7">
-        <v>0.374338602</v>
+        <v>0.37433860200000002</v>
       </c>
       <c r="AR7">
-        <v>0.077194447</v>
+        <v>7.7194446999999999E-2</v>
       </c>
       <c r="AS7">
-        <v>-0.364985452</v>
+        <v>-0.36498545199999999</v>
       </c>
       <c r="AT7">
-        <v>0.037562302</v>
+        <v>3.7562301999999999E-2</v>
       </c>
       <c r="AU7">
-        <v>0.457754083</v>
+        <v>0.45775408299999998</v>
       </c>
       <c r="AV7">
         <v>0.164530749</v>
       </c>
       <c r="AW7">
-        <v>-0.012679359</v>
+        <v>-1.2679358999999999E-2</v>
       </c>
       <c r="AX7">
-        <v>-0.004618834</v>
+        <v>-4.6188339999999996E-3</v>
       </c>
       <c r="AY7">
-        <v>-0.017522194</v>
+        <v>-1.7522194000000001E-2</v>
       </c>
       <c r="AZ7">
-        <v>0.06845145</v>
+        <v>6.8451449999999997E-2</v>
       </c>
       <c r="BA7">
         <v>0.119723472</v>
       </c>
       <c r="BB7">
-        <v>-0.014740618</v>
+        <v>-1.4740618E-2</v>
       </c>
       <c r="BC7">
-        <v>-0.088682249</v>
+        <v>-8.8682249000000005E-2</v>
       </c>
       <c r="BD7">
-        <v>0.083333333</v>
+        <v>8.3333332999999996E-2</v>
       </c>
       <c r="BE7">
-        <v>0.008205128000000001</v>
+        <v>8.2051280000000008E-3</v>
       </c>
       <c r="BF7">
         <v>0.124358974</v>
@@ -2295,7 +2359,7 @@
         <v>0.124102564</v>
       </c>
       <c r="BH7">
-        <v>0.147948718</v>
+        <v>0.14794871800000001</v>
       </c>
       <c r="BI7">
         <v>0.181282051</v>
@@ -2304,19 +2368,19 @@
         <v>0.121794872</v>
       </c>
       <c r="BK7">
-        <v>0.078461538</v>
+        <v>7.8461537999999997E-2</v>
       </c>
       <c r="BL7">
-        <v>0.035384615</v>
+        <v>3.5384615000000001E-2</v>
       </c>
       <c r="BM7">
-        <v>0.06333333300000001</v>
+        <v>6.3333333000000006E-2</v>
       </c>
       <c r="BN7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>242</v>
       </c>
@@ -2372,127 +2436,127 @@
         <v>9.508160540422546</v>
       </c>
       <c r="S8">
-        <v>1.147823191</v>
+        <v>1.1478231910000001</v>
       </c>
       <c r="T8">
-        <v>-0.1674</v>
+        <v>-0.16739999999999999</v>
       </c>
       <c r="U8">
         <v>0.1255</v>
       </c>
       <c r="V8">
-        <v>0.815789474</v>
+        <v>0.81578947400000001</v>
       </c>
       <c r="W8">
-        <v>1.014994707</v>
+        <v>1.0149947070000001</v>
       </c>
       <c r="X8">
-        <v>0.553681211</v>
+        <v>0.55368121100000001</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AA8">
-        <v>0.5370370370000001</v>
+        <v>0.53703703700000005</v>
       </c>
       <c r="AB8">
-        <v>0.818181818</v>
+        <v>0.81818181800000001</v>
       </c>
       <c r="AC8">
-        <v>0.075204452</v>
+        <v>7.5204452000000005E-2</v>
       </c>
       <c r="AD8">
-        <v>0.310803025</v>
+        <v>0.31080302500000001</v>
       </c>
       <c r="AE8">
-        <v>19.46896073324779</v>
+        <v>19.468960733247791</v>
       </c>
       <c r="AF8">
-        <v>0.028716057</v>
+        <v>2.8716057E-2</v>
       </c>
       <c r="AG8">
-        <v>3.777777778</v>
+        <v>3.7777777779999999</v>
       </c>
       <c r="AH8">
-        <v>2.333333333</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="AI8">
-        <v>0.132550361</v>
+        <v>0.13255036100000001</v>
       </c>
       <c r="AJ8">
-        <v>-0.06921432</v>
+        <v>-6.9214319999999996E-2</v>
       </c>
       <c r="AK8">
         <v>-0.113924812</v>
       </c>
       <c r="AL8">
-        <v>0.012034154</v>
+        <v>1.2034154E-2</v>
       </c>
       <c r="AM8">
-        <v>0.794733824</v>
+        <v>0.79473382400000003</v>
       </c>
       <c r="AN8">
-        <v>0.750316746</v>
+        <v>0.75031674599999998</v>
       </c>
       <c r="AO8">
-        <v>0.860554624</v>
+        <v>0.86055462400000005</v>
       </c>
       <c r="AP8">
-        <v>-0.057146245</v>
+        <v>-5.7146244999999998E-2</v>
       </c>
       <c r="AQ8">
-        <v>0.512405856</v>
+        <v>0.51240585599999999</v>
       </c>
       <c r="AR8">
-        <v>0.04255806</v>
+        <v>4.2558060000000002E-2</v>
       </c>
       <c r="AS8">
-        <v>-0.363067404</v>
+        <v>-0.36306740399999998</v>
       </c>
       <c r="AT8">
-        <v>0.137210139</v>
+        <v>0.13721013900000001</v>
       </c>
       <c r="AU8">
-        <v>0.34862654</v>
+        <v>0.34862653999999998</v>
       </c>
       <c r="AV8">
-        <v>0.034842311</v>
+        <v>3.4842311000000001E-2</v>
       </c>
       <c r="AW8">
-        <v>-0.014765905</v>
+        <v>-1.4765904999999999E-2</v>
       </c>
       <c r="AX8">
-        <v>-0.121577337</v>
+        <v>-0.12157733699999999</v>
       </c>
       <c r="AY8">
-        <v>-0.059939777</v>
+        <v>-5.9939777E-2</v>
       </c>
       <c r="AZ8">
-        <v>-0.015632605</v>
+        <v>-1.5632605000000001E-2</v>
       </c>
       <c r="BA8">
-        <v>0.042511653</v>
+        <v>4.2511653000000003E-2</v>
       </c>
       <c r="BB8">
-        <v>0.024592446</v>
+        <v>2.4592446E-2</v>
       </c>
       <c r="BC8">
-        <v>0.054690244</v>
+        <v>5.4690243999999999E-2</v>
       </c>
       <c r="BD8">
-        <v>0.087179487</v>
+        <v>8.7179487E-2</v>
       </c>
       <c r="BE8">
-        <v>0.041794872</v>
+        <v>4.1794871999999997E-2</v>
       </c>
       <c r="BF8">
         <v>0.127692308</v>
       </c>
       <c r="BG8">
-        <v>0.152051282</v>
+        <v>0.15205128200000001</v>
       </c>
       <c r="BH8">
         <v>0.107435897</v>
@@ -2501,22 +2565,22 @@
         <v>0.127692308</v>
       </c>
       <c r="BJ8">
-        <v>0.13025641</v>
+        <v>0.13025640999999999</v>
       </c>
       <c r="BK8">
-        <v>0.068974359</v>
+        <v>6.8974358999999999E-2</v>
       </c>
       <c r="BL8">
-        <v>0.043846154</v>
+        <v>4.3846153999999998E-2</v>
       </c>
       <c r="BM8">
-        <v>0.075128205</v>
+        <v>7.5128205000000003E-2</v>
       </c>
       <c r="BN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>592</v>
       </c>
@@ -2569,127 +2633,127 @@
         <v>0.116348623</v>
       </c>
       <c r="R9">
-        <v>9.758148581005162</v>
+        <v>9.7581485810051625</v>
       </c>
       <c r="S9">
-        <v>1.135347158</v>
+        <v>1.1353471580000001</v>
       </c>
       <c r="T9">
-        <v>-0.1606</v>
+        <v>-0.16059999999999999</v>
       </c>
       <c r="U9">
         <v>0.1221</v>
       </c>
       <c r="V9">
-        <v>0.789473684</v>
+        <v>0.78947368399999995</v>
       </c>
       <c r="W9">
-        <v>0.984421601</v>
+        <v>0.98442160099999998</v>
       </c>
       <c r="X9">
-        <v>0.548499586</v>
+        <v>0.54849958600000004</v>
       </c>
       <c r="Y9">
-        <v>0.9629629629999999</v>
+        <v>0.96296296299999995</v>
       </c>
       <c r="Z9">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AA9">
-        <v>0.444444444</v>
+        <v>0.44444444399999999</v>
       </c>
       <c r="AB9">
-        <v>0.727272727</v>
+        <v>0.72727272700000001</v>
       </c>
       <c r="AC9">
-        <v>0.07286854</v>
+        <v>7.2868539999999996E-2</v>
       </c>
       <c r="AD9">
-        <v>0.312890072</v>
+        <v>0.31289007200000002</v>
       </c>
       <c r="AE9">
-        <v>18.32164027929069</v>
+        <v>18.321640279290691</v>
       </c>
       <c r="AF9">
-        <v>0.031256268</v>
+        <v>3.1256267999999997E-2</v>
       </c>
       <c r="AG9">
-        <v>4.111111111</v>
+        <v>4.1111111109999996</v>
       </c>
       <c r="AH9">
-        <v>2.555555556</v>
+        <v>2.5555555559999998</v>
       </c>
       <c r="AI9">
         <v>0.124093859</v>
       </c>
       <c r="AJ9">
-        <v>-0.06682521499999999</v>
+        <v>-6.6825214999999993E-2</v>
       </c>
       <c r="AK9">
         <v>-0.10448506</v>
       </c>
       <c r="AL9">
-        <v>0.011672805</v>
+        <v>1.1672805E-2</v>
       </c>
       <c r="AM9">
         <v>0.763457108</v>
       </c>
       <c r="AN9">
-        <v>0.72305982</v>
+        <v>0.72305982000000002</v>
       </c>
       <c r="AO9">
-        <v>0.776361547</v>
+        <v>0.77636154700000004</v>
       </c>
       <c r="AP9">
-        <v>-0.025052185</v>
+        <v>-2.5052185000000001E-2</v>
       </c>
       <c r="AQ9">
-        <v>0.59107457</v>
+        <v>0.59107456999999997</v>
       </c>
       <c r="AR9">
-        <v>0.008407853999999999</v>
+        <v>8.4078539999999993E-3</v>
       </c>
       <c r="AS9">
-        <v>-0.39068677</v>
+        <v>-0.39068677000000002</v>
       </c>
       <c r="AT9">
-        <v>0.09803559100000001</v>
+        <v>9.8035591000000005E-2</v>
       </c>
       <c r="AU9">
-        <v>0.406756812</v>
+        <v>0.40675681200000002</v>
       </c>
       <c r="AV9">
-        <v>0.064076564</v>
+        <v>6.4076564000000003E-2</v>
       </c>
       <c r="AW9">
         <v>-0.179617216</v>
       </c>
       <c r="AX9">
-        <v>-0.042310884</v>
+        <v>-4.2310884E-2</v>
       </c>
       <c r="AY9">
-        <v>-0.032707324</v>
+        <v>-3.2707324000000003E-2</v>
       </c>
       <c r="AZ9">
-        <v>0.042882209</v>
+        <v>4.2882208999999998E-2</v>
       </c>
       <c r="BA9">
-        <v>0.029042585</v>
+        <v>2.9042584999999999E-2</v>
       </c>
       <c r="BB9">
-        <v>0.03892905</v>
+        <v>3.892905E-2</v>
       </c>
       <c r="BC9">
-        <v>-0.013088454</v>
+        <v>-1.3088453999999999E-2</v>
       </c>
       <c r="BD9">
-        <v>0.04974359</v>
+        <v>4.9743589999999997E-2</v>
       </c>
       <c r="BE9">
-        <v>0.096410256</v>
+        <v>9.6410256E-2</v>
       </c>
       <c r="BF9">
-        <v>0.115641026</v>
+        <v>0.11564102599999999</v>
       </c>
       <c r="BG9">
         <v>0.198717949</v>
@@ -2698,25 +2762,25 @@
         <v>0.109487179</v>
       </c>
       <c r="BI9">
-        <v>0.175384615</v>
+        <v>0.17538461499999999</v>
       </c>
       <c r="BJ9">
-        <v>0.166666667</v>
+        <v>0.16666666699999999</v>
       </c>
       <c r="BK9">
-        <v>0.010512821</v>
+        <v>1.0512821E-2</v>
       </c>
       <c r="BL9">
         <v>0.03</v>
       </c>
       <c r="BM9">
-        <v>0.017692308</v>
+        <v>1.7692308E-2</v>
       </c>
       <c r="BN9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>590</v>
       </c>
@@ -2769,49 +2833,49 @@
         <v>0.108513843</v>
       </c>
       <c r="R10">
-        <v>8.899698423039297</v>
+        <v>8.8996984230392968</v>
       </c>
       <c r="S10">
-        <v>0.965740485</v>
+        <v>0.96574048499999998</v>
       </c>
       <c r="T10">
-        <v>-0.2018</v>
+        <v>-0.20180000000000001</v>
       </c>
       <c r="U10">
         <v>0.1246</v>
       </c>
       <c r="V10">
-        <v>0.776315789</v>
+        <v>0.77631578899999998</v>
       </c>
       <c r="W10">
-        <v>1.017725901</v>
+        <v>1.0177259009999999</v>
       </c>
       <c r="X10">
-        <v>0.737602832</v>
+        <v>0.73760283199999999</v>
       </c>
       <c r="Y10">
-        <v>0.981481481</v>
+        <v>0.98148148099999999</v>
       </c>
       <c r="Z10">
-        <v>0.727272727</v>
+        <v>0.72727272700000001</v>
       </c>
       <c r="AA10">
-        <v>0.555555556</v>
+        <v>0.55555555599999995</v>
       </c>
       <c r="AB10">
-        <v>0.681818182</v>
+        <v>0.68181818199999999</v>
       </c>
       <c r="AC10">
-        <v>0.078211955</v>
+        <v>7.8211955E-2</v>
       </c>
       <c r="AD10">
-        <v>0.332704278</v>
+        <v>0.33270427800000002</v>
       </c>
       <c r="AE10">
-        <v>21.04328968737605</v>
+        <v>21.043289687376049</v>
       </c>
       <c r="AF10">
-        <v>0.036114461</v>
+        <v>3.6114461E-2</v>
       </c>
       <c r="AG10">
         <v>4</v>
@@ -2823,37 +2887,37 @@
         <v>0.133317667</v>
       </c>
       <c r="AJ10">
-        <v>-0.080137629</v>
+        <v>-8.0137629000000002E-2</v>
       </c>
       <c r="AK10">
         <v>-0.130347191</v>
       </c>
       <c r="AL10">
-        <v>0.007800149</v>
+        <v>7.8001490000000001E-3</v>
       </c>
       <c r="AM10">
-        <v>0.862984577</v>
+        <v>0.86298457699999997</v>
       </c>
       <c r="AN10">
-        <v>0.763468033</v>
+        <v>0.76346803299999999</v>
       </c>
       <c r="AO10">
-        <v>0.903602477</v>
+        <v>0.90360247699999996</v>
       </c>
       <c r="AP10">
-        <v>0.149345298</v>
+        <v>0.14934529799999999</v>
       </c>
       <c r="AQ10">
-        <v>0.365431881</v>
+        <v>0.36543188100000001</v>
       </c>
       <c r="AR10">
-        <v>-0.003903651</v>
+        <v>-3.9036510000000002E-3</v>
       </c>
       <c r="AS10">
         <v>-0.3123803</v>
       </c>
       <c r="AT10">
-        <v>0.034677805</v>
+        <v>3.4677804999999999E-2</v>
       </c>
       <c r="AU10">
         <v>0.259693601</v>
@@ -2862,61 +2926,61 @@
         <v>0.125343118</v>
       </c>
       <c r="AW10">
-        <v>-0.18545472</v>
+        <v>-0.18545471999999999</v>
       </c>
       <c r="AX10">
-        <v>0.037061897</v>
+        <v>3.7061897000000003E-2</v>
       </c>
       <c r="AY10">
-        <v>-0.013391915</v>
+        <v>-1.3391915000000001E-2</v>
       </c>
       <c r="AZ10">
-        <v>0.062725696</v>
+        <v>6.2725695999999997E-2</v>
       </c>
       <c r="BA10">
-        <v>0.07015456</v>
+        <v>7.0154560000000005E-2</v>
       </c>
       <c r="BB10">
-        <v>0.024467393</v>
+        <v>2.4467393E-2</v>
       </c>
       <c r="BC10">
-        <v>-0.027576776</v>
+        <v>-2.7576776000000001E-2</v>
       </c>
       <c r="BD10">
         <v>0.125897436</v>
       </c>
       <c r="BE10">
-        <v>0.02974359</v>
+        <v>2.974359E-2</v>
       </c>
       <c r="BF10">
-        <v>0.138205128</v>
+        <v>0.13820512800000001</v>
       </c>
       <c r="BG10">
-        <v>0.117948718</v>
+        <v>0.11794871799999999</v>
       </c>
       <c r="BH10">
         <v>0.134615385</v>
       </c>
       <c r="BI10">
-        <v>0.143333333</v>
+        <v>0.14333333300000001</v>
       </c>
       <c r="BJ10">
-        <v>0.177435897</v>
+        <v>0.17743589700000001</v>
       </c>
       <c r="BK10">
-        <v>0.042307692</v>
+        <v>4.2307692000000001E-2</v>
       </c>
       <c r="BL10">
-        <v>0.048974359</v>
+        <v>4.8974359000000002E-2</v>
       </c>
       <c r="BM10">
-        <v>0.003589744</v>
+        <v>3.5897440000000002E-3</v>
       </c>
       <c r="BN10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>314</v>
       </c>
@@ -2969,100 +3033,100 @@
         <v>0.122291869</v>
       </c>
       <c r="R11">
-        <v>8.520146563901998</v>
+        <v>8.5201465639019975</v>
       </c>
       <c r="S11">
-        <v>1.041944646</v>
+        <v>1.0419446459999999</v>
       </c>
       <c r="T11">
-        <v>-0.2174</v>
+        <v>-0.21740000000000001</v>
       </c>
       <c r="U11">
-        <v>0.1795</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="V11">
-        <v>0.815789474</v>
+        <v>0.81578947400000001</v>
       </c>
       <c r="W11">
         <v>1.048295551</v>
       </c>
       <c r="X11">
-        <v>0.590901036</v>
+        <v>0.59090103599999999</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.636363636</v>
+        <v>0.63636363600000001</v>
       </c>
       <c r="AA11">
         <v>0.5</v>
       </c>
       <c r="AB11">
-        <v>0.727272727</v>
+        <v>0.72727272700000001</v>
       </c>
       <c r="AC11">
-        <v>0.0785008</v>
+        <v>7.8500799999999996E-2</v>
       </c>
       <c r="AD11">
-        <v>0.317565597</v>
+        <v>0.31756559699999998</v>
       </c>
       <c r="AE11">
-        <v>15.34436710968668</v>
+        <v>15.344367109686679</v>
       </c>
       <c r="AF11">
-        <v>0.027190616</v>
+        <v>2.7190616000000001E-2</v>
       </c>
       <c r="AG11">
-        <v>3.666666667</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="AH11">
-        <v>2.222222222</v>
+        <v>2.2222222220000001</v>
       </c>
       <c r="AI11">
-        <v>0.158365788</v>
+        <v>0.15836578800000001</v>
       </c>
       <c r="AJ11">
-        <v>-0.07823904800000001</v>
+        <v>-7.8239048000000005E-2</v>
       </c>
       <c r="AK11">
-        <v>-0.1547512</v>
+        <v>-0.15475120000000001</v>
       </c>
       <c r="AL11">
-        <v>0.011832764</v>
+        <v>1.1832764000000001E-2</v>
       </c>
       <c r="AM11">
-        <v>0.83413096</v>
+        <v>0.83413095999999998</v>
       </c>
       <c r="AN11">
-        <v>0.740990754</v>
+        <v>0.74099075400000003</v>
       </c>
       <c r="AO11">
         <v>0.96821974</v>
       </c>
       <c r="AP11">
-        <v>-0.092159982</v>
+        <v>-9.2159982000000001E-2</v>
       </c>
       <c r="AQ11">
-        <v>0.626512996</v>
+        <v>0.62651299599999999</v>
       </c>
       <c r="AR11">
-        <v>0.035038756</v>
+        <v>3.5038755999999997E-2</v>
       </c>
       <c r="AS11">
         <v>-0.280300412</v>
       </c>
       <c r="AT11">
-        <v>0.443413338</v>
+        <v>0.44341333799999999</v>
       </c>
       <c r="AU11">
-        <v>0.153475464</v>
+        <v>0.15347546400000001</v>
       </c>
       <c r="AV11">
         <v>0.121411387</v>
       </c>
       <c r="AW11">
-        <v>-0.009926154</v>
+        <v>-9.9261539999999995E-3</v>
       </c>
       <c r="AX11">
         <v>-0.112220285</v>
@@ -3071,25 +3135,25 @@
         <v>-0.20015173</v>
       </c>
       <c r="AZ11">
-        <v>-0.033311349</v>
+        <v>-3.3311348999999997E-2</v>
       </c>
       <c r="BA11">
-        <v>0.05265144</v>
+        <v>5.2651440000000001E-2</v>
       </c>
       <c r="BB11">
-        <v>0.005676514</v>
+        <v>5.6765139999999997E-3</v>
       </c>
       <c r="BC11">
-        <v>0.263271334</v>
+        <v>0.26327133400000002</v>
       </c>
       <c r="BD11">
-        <v>0.09025641</v>
+        <v>9.0256409999999995E-2</v>
       </c>
       <c r="BE11">
-        <v>0.001282051</v>
+        <v>1.282051E-3</v>
       </c>
       <c r="BF11">
-        <v>0.227948718</v>
+        <v>0.22794871799999999</v>
       </c>
       <c r="BG11">
         <v>0.136153846</v>
@@ -3104,32 +3168,33 @@
         <v>0.105384615</v>
       </c>
       <c r="BK11">
-        <v>0.032307692</v>
+        <v>3.2307691999999999E-2</v>
       </c>
       <c r="BL11">
-        <v>0.048974359</v>
+        <v>4.8974359000000002E-2</v>
       </c>
       <c r="BM11">
-        <v>0.099230769</v>
+        <v>9.9230768999999996E-2</v>
       </c>
       <c r="BN11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +3391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2538</v>
       </c>
@@ -3379,52 +3444,52 @@
         <v>0.121101153</v>
       </c>
       <c r="R2">
-        <v>4.39531283663289</v>
+        <v>4.3953128366328897</v>
       </c>
       <c r="S2">
-        <v>0.532277451</v>
+        <v>0.53227745100000001</v>
       </c>
       <c r="T2">
         <v>-0.2596</v>
       </c>
       <c r="U2">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="V2">
-        <v>0.605263158</v>
+        <v>0.60526315799999997</v>
       </c>
       <c r="W2">
-        <v>1.521981814</v>
+        <v>1.5219818140000001</v>
       </c>
       <c r="X2">
         <v>1.523200452</v>
       </c>
       <c r="Y2">
-        <v>0.796296296</v>
+        <v>0.79629629599999996</v>
       </c>
       <c r="Z2">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA2">
         <v>0.592592593</v>
       </c>
       <c r="AB2">
-        <v>0.272727273</v>
+        <v>0.27272727299999999</v>
       </c>
       <c r="AC2">
         <v>0.103578026</v>
       </c>
       <c r="AD2">
-        <v>0.6195574659999999</v>
+        <v>0.61955746599999995</v>
       </c>
       <c r="AE2">
         <v>6.719184258778899</v>
       </c>
       <c r="AF2">
-        <v>0.071937785</v>
+        <v>7.1937785000000004E-2</v>
       </c>
       <c r="AG2">
-        <v>3.866666667</v>
+        <v>3.8666666670000001</v>
       </c>
       <c r="AH2">
         <v>1.933333333</v>
@@ -3436,10 +3501,10 @@
         <v>-0.144525704</v>
       </c>
       <c r="AK2">
-        <v>-0.20354215</v>
+        <v>-0.20354215000000001</v>
       </c>
       <c r="AL2">
-        <v>-0.000578412</v>
+        <v>-5.7841200000000005E-4</v>
       </c>
       <c r="AM2">
         <v>1.545855567</v>
@@ -3451,40 +3516,40 @@
         <v>1.306260725</v>
       </c>
       <c r="AP2">
-        <v>-0.063230865</v>
+        <v>-6.3230864999999997E-2</v>
       </c>
       <c r="AQ2">
-        <v>0.300989365</v>
+        <v>0.30098936500000001</v>
       </c>
       <c r="AR2">
-        <v>-0.336988609</v>
+        <v>-0.33698860899999999</v>
       </c>
       <c r="AS2">
-        <v>0.346512573</v>
+        <v>0.34651257299999999</v>
       </c>
       <c r="AT2">
-        <v>0.125599166</v>
+        <v>0.12559916600000001</v>
       </c>
       <c r="AU2">
-        <v>-0.08781472</v>
+        <v>-8.7814719999999999E-2</v>
       </c>
       <c r="AV2">
-        <v>-0.040025567</v>
+        <v>-4.0025566999999998E-2</v>
       </c>
       <c r="AW2">
-        <v>0.384453216</v>
+        <v>0.38445321599999999</v>
       </c>
       <c r="AX2">
-        <v>-0.361679375</v>
+        <v>-0.36167937500000003</v>
       </c>
       <c r="AY2">
-        <v>-0.058555658</v>
+        <v>-5.8555657999999997E-2</v>
       </c>
       <c r="AZ2">
-        <v>-0.266775204</v>
+        <v>-0.26677520399999999</v>
       </c>
       <c r="BA2">
-        <v>-0.426108482</v>
+        <v>-0.42610848200000001</v>
       </c>
       <c r="BB2">
         <v>0.219902245</v>
@@ -3493,40 +3558,40 @@
         <v>0.235196238</v>
       </c>
       <c r="BD2">
-        <v>0.173333333</v>
+        <v>0.17333333300000001</v>
       </c>
       <c r="BE2">
         <v>0.122307692</v>
       </c>
       <c r="BF2">
-        <v>0.055897436</v>
+        <v>5.5897436000000002E-2</v>
       </c>
       <c r="BG2">
-        <v>0.052051282</v>
+        <v>5.2051281999999997E-2</v>
       </c>
       <c r="BH2">
-        <v>0.160769231</v>
+        <v>0.16076923100000001</v>
       </c>
       <c r="BI2">
-        <v>0.036666667</v>
+        <v>3.6666667E-2</v>
       </c>
       <c r="BJ2">
         <v>0.06</v>
       </c>
       <c r="BK2">
-        <v>0.134102564</v>
+        <v>0.13410256400000001</v>
       </c>
       <c r="BL2">
-        <v>0.083333333</v>
+        <v>8.3333332999999996E-2</v>
       </c>
       <c r="BM2">
-        <v>0.067179487</v>
+        <v>6.7179486999999996E-2</v>
       </c>
       <c r="BN2">
-        <v>0.001282051</v>
+        <v>1.282051E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2503</v>
       </c>
@@ -3576,22 +3641,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.135718936</v>
+        <v>0.13571893600000001</v>
       </c>
       <c r="R3">
-        <v>4.603021713443073</v>
+        <v>4.6030217134430726</v>
       </c>
       <c r="S3">
-        <v>0.62471721</v>
+        <v>0.62471721000000002</v>
       </c>
       <c r="T3">
-        <v>-0.2372</v>
+        <v>-0.23719999999999999</v>
       </c>
       <c r="U3">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="V3">
-        <v>0.6184210530000001</v>
+        <v>0.61842105300000005</v>
       </c>
       <c r="W3">
         <v>1.53845835</v>
@@ -3600,37 +3665,37 @@
         <v>1.381200271</v>
       </c>
       <c r="Y3">
-        <v>0.814814815</v>
+        <v>0.81481481499999997</v>
       </c>
       <c r="Z3">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA3">
-        <v>0.648148148</v>
+        <v>0.64814814799999998</v>
       </c>
       <c r="AB3">
-        <v>0.318181818</v>
+        <v>0.31818181800000001</v>
       </c>
       <c r="AC3">
-        <v>0.09269656799999999</v>
+        <v>9.2696567999999993E-2</v>
       </c>
       <c r="AD3">
-        <v>0.534930309</v>
+        <v>0.53493030900000005</v>
       </c>
       <c r="AE3">
-        <v>7.018154365203586</v>
+        <v>7.0181543652035856</v>
       </c>
       <c r="AF3">
-        <v>0.058355989</v>
+        <v>5.8355988999999997E-2</v>
       </c>
       <c r="AG3">
         <v>3.411764706</v>
       </c>
       <c r="AH3">
-        <v>1.764705882</v>
+        <v>1.7647058819999999</v>
       </c>
       <c r="AI3">
-        <v>0.209964729</v>
+        <v>0.20996472899999999</v>
       </c>
       <c r="AJ3">
         <v>-0.129921328</v>
@@ -3639,7 +3704,7 @@
         <v>-0.178558628</v>
       </c>
       <c r="AL3">
-        <v>0.004432073</v>
+        <v>4.4320729999999999E-3</v>
       </c>
       <c r="AM3">
         <v>1.449323342</v>
@@ -3651,40 +3716,40 @@
         <v>1.117362314</v>
       </c>
       <c r="AP3">
-        <v>-0.10866865</v>
+        <v>-0.10866865000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.298382008</v>
+        <v>0.29838200799999998</v>
       </c>
       <c r="AR3">
         <v>-0.332635819</v>
       </c>
       <c r="AS3">
-        <v>0.33480813</v>
+        <v>0.33480812999999998</v>
       </c>
       <c r="AT3">
-        <v>0.211747788</v>
+        <v>0.21174778799999999</v>
       </c>
       <c r="AU3">
-        <v>-0.077806923</v>
+        <v>-7.7806923E-2</v>
       </c>
       <c r="AV3">
-        <v>-0.047781809</v>
+        <v>-4.7781809000000001E-2</v>
       </c>
       <c r="AW3">
         <v>0.234520536</v>
       </c>
       <c r="AX3">
-        <v>-0.419574503</v>
+        <v>-0.41957450299999999</v>
       </c>
       <c r="AY3">
-        <v>-0.09564182</v>
+        <v>-9.5641820000000002E-2</v>
       </c>
       <c r="AZ3">
-        <v>-0.274499374</v>
+        <v>-0.27449937400000002</v>
       </c>
       <c r="BA3">
-        <v>-0.390990836</v>
+        <v>-0.39099083600000001</v>
       </c>
       <c r="BB3">
         <v>0.242239815</v>
@@ -3696,37 +3761,37 @@
         <v>0.181282051</v>
       </c>
       <c r="BE3">
-        <v>0.091794872</v>
+        <v>9.1794872E-2</v>
       </c>
       <c r="BF3">
-        <v>0.055384615</v>
+        <v>5.5384614999999998E-2</v>
       </c>
       <c r="BG3">
-        <v>0.078461538</v>
+        <v>7.8461537999999997E-2</v>
       </c>
       <c r="BH3">
         <v>0.16974359</v>
       </c>
       <c r="BI3">
-        <v>0.046410256</v>
+        <v>4.6410255999999997E-2</v>
       </c>
       <c r="BJ3">
-        <v>0.07205128199999999</v>
+        <v>7.2051281999999994E-2</v>
       </c>
       <c r="BK3">
         <v>0.116923077</v>
       </c>
       <c r="BL3">
-        <v>0.08025641</v>
+        <v>8.025641E-2</v>
       </c>
       <c r="BM3">
-        <v>0.053333333</v>
+        <v>5.3333332999999997E-2</v>
       </c>
       <c r="BN3">
-        <v>0.001025641</v>
+        <v>1.0256410000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2978</v>
       </c>
@@ -3779,10 +3844,10 @@
         <v>0.121995722</v>
       </c>
       <c r="R4">
-        <v>4.664848936750778</v>
+        <v>4.6648489367507784</v>
       </c>
       <c r="S4">
-        <v>0.569091614</v>
+        <v>0.56909161399999997</v>
       </c>
       <c r="T4">
         <v>-0.2487</v>
@@ -3791,103 +3856,103 @@
         <v>0.3705</v>
       </c>
       <c r="V4">
-        <v>0.6184210530000001</v>
+        <v>0.61842105300000005</v>
       </c>
       <c r="W4">
         <v>1.452257057</v>
       </c>
       <c r="X4">
-        <v>1.380977832</v>
+        <v>1.3809778319999999</v>
       </c>
       <c r="Y4">
-        <v>0.796296296</v>
+        <v>0.79629629599999996</v>
       </c>
       <c r="Z4">
-        <v>0.818181818</v>
+        <v>0.81818181800000001</v>
       </c>
       <c r="AA4">
-        <v>0.611111111</v>
+        <v>0.61111111100000004</v>
       </c>
       <c r="AB4">
-        <v>0.318181818</v>
+        <v>0.31818181800000001</v>
       </c>
       <c r="AC4">
-        <v>0.106992472</v>
+        <v>0.10699247200000001</v>
       </c>
       <c r="AD4">
-        <v>0.549065632</v>
+        <v>0.54906563200000003</v>
       </c>
       <c r="AE4">
-        <v>7.137124859067656</v>
+        <v>7.1371248590676561</v>
       </c>
       <c r="AF4">
-        <v>0.067313875</v>
+        <v>6.7313874999999995E-2</v>
       </c>
       <c r="AG4">
         <v>3.8</v>
       </c>
       <c r="AH4">
-        <v>1.866666667</v>
+        <v>1.8666666670000001</v>
       </c>
       <c r="AI4">
-        <v>0.232956226</v>
+        <v>0.23295622599999999</v>
       </c>
       <c r="AJ4">
         <v>-0.130492205</v>
       </c>
       <c r="AK4">
-        <v>-0.179865338</v>
+        <v>-0.17986533800000001</v>
       </c>
       <c r="AL4">
-        <v>0.001596624</v>
+        <v>1.596624E-3</v>
       </c>
       <c r="AM4">
         <v>1.429422524</v>
       </c>
       <c r="AN4">
-        <v>1.729523228</v>
+        <v>1.7295232279999999</v>
       </c>
       <c r="AO4">
         <v>1.148846955</v>
       </c>
       <c r="AP4">
-        <v>-0.022734961</v>
+        <v>-2.2734961000000001E-2</v>
       </c>
       <c r="AQ4">
-        <v>0.489944189</v>
+        <v>0.48994418899999997</v>
       </c>
       <c r="AR4">
-        <v>-0.554800915</v>
+        <v>-0.55480091499999995</v>
       </c>
       <c r="AS4">
-        <v>0.232413185</v>
+        <v>0.23241318499999999</v>
       </c>
       <c r="AT4">
         <v>0.147690932</v>
       </c>
       <c r="AU4">
-        <v>-0.08051452000000001</v>
+        <v>-8.0514520000000006E-2</v>
       </c>
       <c r="AV4">
-        <v>-0.04841375</v>
+        <v>-4.8413749999999998E-2</v>
       </c>
       <c r="AW4">
-        <v>0.251705256</v>
+        <v>0.25170525599999999</v>
       </c>
       <c r="AX4">
-        <v>-0.391808519</v>
+        <v>-0.39180851900000002</v>
       </c>
       <c r="AY4">
-        <v>-0.0680162</v>
+        <v>-6.8016199999999999E-2</v>
       </c>
       <c r="AZ4">
         <v>-0.248942473</v>
       </c>
       <c r="BA4">
-        <v>-0.473225869</v>
+        <v>-0.47322586900000002</v>
       </c>
       <c r="BB4">
-        <v>0.375041146</v>
+        <v>0.37504114599999999</v>
       </c>
       <c r="BC4">
         <v>0.230073421</v>
@@ -3896,37 +3961,37 @@
         <v>0.165641026</v>
       </c>
       <c r="BE4">
-        <v>0.127179487</v>
+        <v>0.12717948700000001</v>
       </c>
       <c r="BF4">
-        <v>0.06974358999999999</v>
+        <v>6.9743589999999994E-2</v>
       </c>
       <c r="BG4">
-        <v>0.07461538500000001</v>
+        <v>7.4615385000000006E-2</v>
       </c>
       <c r="BH4">
-        <v>0.145897436</v>
+        <v>0.14589743599999999</v>
       </c>
       <c r="BI4">
-        <v>0.045384615</v>
+        <v>4.5384615000000003E-2</v>
       </c>
       <c r="BJ4">
-        <v>0.070512821</v>
+        <v>7.0512821000000003E-2</v>
       </c>
       <c r="BK4">
         <v>0.113076923</v>
       </c>
       <c r="BL4">
-        <v>0.07461538500000001</v>
+        <v>7.4615385000000006E-2</v>
       </c>
       <c r="BM4">
-        <v>0.054358974</v>
+        <v>5.4358973999999997E-2</v>
       </c>
       <c r="BN4">
-        <v>0.001282051</v>
+        <v>1.282051E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2384</v>
       </c>
@@ -3976,58 +4041,58 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.136479484</v>
+        <v>0.13647948400000001</v>
       </c>
       <c r="R5">
-        <v>5.146898293285438</v>
+        <v>5.1468982932854379</v>
       </c>
       <c r="S5">
-        <v>0.702446019</v>
+        <v>0.70244601900000003</v>
       </c>
       <c r="T5">
-        <v>-0.2106</v>
+        <v>-0.21060000000000001</v>
       </c>
       <c r="U5">
-        <v>0.3549</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="V5">
-        <v>0.6315789469999999</v>
+        <v>0.63157894699999995</v>
       </c>
       <c r="W5">
-        <v>1.42476434</v>
+        <v>1.4247643400000001</v>
       </c>
       <c r="X5">
-        <v>1.154141567</v>
+        <v>1.1541415669999999</v>
       </c>
       <c r="Y5">
-        <v>0.833333333</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="Z5">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA5">
-        <v>0.6296296300000001</v>
+        <v>0.62962963000000005</v>
       </c>
       <c r="AB5">
-        <v>0.363636364</v>
+        <v>0.36363636399999999</v>
       </c>
       <c r="AC5">
-        <v>0.07017625600000001</v>
+        <v>7.0176256000000006E-2</v>
       </c>
       <c r="AD5">
-        <v>0.487652809</v>
+        <v>0.48765280900000002</v>
       </c>
       <c r="AE5">
-        <v>8.302146941010449</v>
+        <v>8.3021469410104487</v>
       </c>
       <c r="AF5">
-        <v>0.046527382</v>
+        <v>4.6527381999999999E-2</v>
       </c>
       <c r="AG5">
-        <v>3.052631579</v>
+        <v>3.0526315789999998</v>
       </c>
       <c r="AH5">
-        <v>1.631578947</v>
+        <v>1.6315789469999999</v>
       </c>
       <c r="AI5">
         <v>0.149472575</v>
@@ -4036,10 +4101,10 @@
         <v>-0.111426831</v>
       </c>
       <c r="AK5">
-        <v>-0.15337343</v>
+        <v>-0.15337343000000001</v>
       </c>
       <c r="AL5">
-        <v>0.00651555</v>
+        <v>6.5155500000000002E-3</v>
       </c>
       <c r="AM5">
         <v>1.318736364</v>
@@ -4051,13 +4116,13 @@
         <v>1.083839166</v>
       </c>
       <c r="AP5">
-        <v>-0.133233523</v>
+        <v>-0.13323352299999999</v>
       </c>
       <c r="AQ5">
         <v>0.272766222</v>
       </c>
       <c r="AR5">
-        <v>-0.281907502</v>
+        <v>-0.28190750199999998</v>
       </c>
       <c r="AS5">
         <v>0.23031114</v>
@@ -4066,13 +4131,13 @@
         <v>0.263686329</v>
       </c>
       <c r="AU5">
-        <v>-0.051598805</v>
+        <v>-5.1598804999999998E-2</v>
       </c>
       <c r="AV5">
-        <v>-0.046986337</v>
+        <v>-4.6986337000000003E-2</v>
       </c>
       <c r="AW5">
-        <v>0.041800453</v>
+        <v>4.1800453000000001E-2</v>
       </c>
       <c r="AX5">
         <v>-0.413842133</v>
@@ -4081,10 +4146,10 @@
         <v>-0.115649935</v>
       </c>
       <c r="AZ5">
-        <v>-0.195711872</v>
+        <v>-0.19571187200000001</v>
       </c>
       <c r="BA5">
-        <v>-0.26920069</v>
+        <v>-0.26920069000000002</v>
       </c>
       <c r="BB5">
         <v>0.228451297</v>
@@ -4093,40 +4158,40 @@
         <v>0.243612464</v>
       </c>
       <c r="BD5">
-        <v>0.185641026</v>
+        <v>0.18564102599999999</v>
       </c>
       <c r="BE5">
-        <v>0.069487179</v>
+        <v>6.9487178999999996E-2</v>
       </c>
       <c r="BF5">
-        <v>0.051538462</v>
+        <v>5.1538462E-2</v>
       </c>
       <c r="BG5">
-        <v>0.126153846</v>
+        <v>0.12615384599999999</v>
       </c>
       <c r="BH5">
-        <v>0.164358974</v>
+        <v>0.16435897399999999</v>
       </c>
       <c r="BI5">
-        <v>0.065897436</v>
+        <v>6.5897436000000004E-2</v>
       </c>
       <c r="BJ5">
-        <v>0.096666667</v>
+        <v>9.6666666999999998E-2</v>
       </c>
       <c r="BK5">
-        <v>0.086410256</v>
+        <v>8.6410256000000005E-2</v>
       </c>
       <c r="BL5">
-        <v>0.07692307700000001</v>
+        <v>7.6923077000000006E-2</v>
       </c>
       <c r="BM5">
-        <v>0.032820513</v>
+        <v>3.2820513000000003E-2</v>
       </c>
       <c r="BN5">
-        <v>0.001025641</v>
+        <v>1.0256410000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>660</v>
       </c>
@@ -4179,19 +4244,19 @@
         <v>0.109075061</v>
       </c>
       <c r="R6">
-        <v>4.550064567463742</v>
+        <v>4.5500645674637417</v>
       </c>
       <c r="S6">
-        <v>0.49629857</v>
+        <v>0.49629856999999999</v>
       </c>
       <c r="T6">
-        <v>-0.2952</v>
+        <v>-0.29520000000000002</v>
       </c>
       <c r="U6">
-        <v>0.3423</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="V6">
-        <v>0.6184210530000001</v>
+        <v>0.61842105300000005</v>
       </c>
       <c r="W6">
         <v>1.419434123</v>
@@ -4200,133 +4265,133 @@
         <v>1.471679733</v>
       </c>
       <c r="Y6">
-        <v>0.833333333</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="Z6">
         <v>0.909090909</v>
       </c>
       <c r="AA6">
-        <v>0.574074074</v>
+        <v>0.57407407399999999</v>
       </c>
       <c r="AB6">
-        <v>0.227272727</v>
+        <v>0.22727272700000001</v>
       </c>
       <c r="AC6">
-        <v>0.116436957</v>
+        <v>0.11643695699999999</v>
       </c>
       <c r="AD6">
-        <v>0.662315225</v>
+        <v>0.66231522499999995</v>
       </c>
       <c r="AE6">
-        <v>6.916564110735934</v>
+        <v>6.9165641107359344</v>
       </c>
       <c r="AF6">
-        <v>0.093523937</v>
+        <v>9.3523937000000001E-2</v>
       </c>
       <c r="AG6">
-        <v>5.181818182</v>
+        <v>5.1818181819999998</v>
       </c>
       <c r="AH6">
-        <v>2.727272727</v>
+        <v>2.7272727269999999</v>
       </c>
       <c r="AI6">
-        <v>0.237005438</v>
+        <v>0.23700543800000001</v>
       </c>
       <c r="AJ6">
-        <v>-0.145706549</v>
+        <v>-0.14570654899999999</v>
       </c>
       <c r="AK6">
-        <v>-0.208900724</v>
+        <v>-0.20890072400000001</v>
       </c>
       <c r="AL6">
-        <v>-0.001918136</v>
+        <v>-1.918136E-3</v>
       </c>
       <c r="AM6">
         <v>1.468037797</v>
       </c>
       <c r="AN6">
-        <v>1.619760269</v>
+        <v>1.6197602689999999</v>
       </c>
       <c r="AO6">
         <v>1.3895586</v>
       </c>
       <c r="AP6">
-        <v>-0.039370734</v>
+        <v>-3.9370733999999998E-2</v>
       </c>
       <c r="AQ6">
-        <v>0.060680863</v>
+        <v>6.0680863000000002E-2</v>
       </c>
       <c r="AR6">
-        <v>-0.118707687</v>
+        <v>-0.11870768700000001</v>
       </c>
       <c r="AS6">
-        <v>0.361550195</v>
+        <v>0.36155019500000002</v>
       </c>
       <c r="AT6">
-        <v>0.06270384800000001</v>
+        <v>6.2703848000000006E-2</v>
       </c>
       <c r="AU6">
-        <v>-0.068504437</v>
+        <v>-6.8504437000000001E-2</v>
       </c>
       <c r="AV6">
-        <v>-0.007938963</v>
+        <v>-7.9389630000000003E-3</v>
       </c>
       <c r="AW6">
-        <v>0.505546176</v>
+        <v>0.50554617599999996</v>
       </c>
       <c r="AX6">
         <v>-0.19232415</v>
       </c>
       <c r="AY6">
-        <v>-0.033925131</v>
+        <v>-3.3925130999999997E-2</v>
       </c>
       <c r="AZ6">
-        <v>-0.191590578</v>
+        <v>-0.19159057800000001</v>
       </c>
       <c r="BA6">
-        <v>-0.318452797</v>
+        <v>-0.31845279700000001</v>
       </c>
       <c r="BB6">
-        <v>0.047285093</v>
+        <v>4.7285093E-2</v>
       </c>
       <c r="BC6">
-        <v>0.165902819</v>
+        <v>0.16590281900000001</v>
       </c>
       <c r="BD6">
-        <v>0.153333333</v>
+        <v>0.15333333299999999</v>
       </c>
       <c r="BE6">
         <v>0.128205128</v>
       </c>
       <c r="BF6">
-        <v>0.045384615</v>
+        <v>4.5384615000000003E-2</v>
       </c>
       <c r="BG6">
-        <v>0.032820513</v>
+        <v>3.2820513000000003E-2</v>
       </c>
       <c r="BH6">
-        <v>0.156923077</v>
+        <v>0.15692307699999999</v>
       </c>
       <c r="BI6">
-        <v>0.044358974</v>
+        <v>4.4358974000000002E-2</v>
       </c>
       <c r="BJ6">
         <v>0.06</v>
       </c>
       <c r="BK6">
-        <v>0.161794872</v>
+        <v>0.16179487200000001</v>
       </c>
       <c r="BL6">
         <v>0.09</v>
       </c>
       <c r="BM6">
-        <v>0.077435897</v>
+        <v>7.7435897000000004E-2</v>
       </c>
       <c r="BN6">
-        <v>0.000769231</v>
+        <v>7.6923099999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2542</v>
       </c>
@@ -4376,52 +4441,52 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.096660792</v>
+        <v>9.6660791999999995E-2</v>
       </c>
       <c r="R7">
-        <v>4.719832690238037</v>
+        <v>4.7198326902380368</v>
       </c>
       <c r="S7">
         <v>0.456222766</v>
       </c>
       <c r="T7">
-        <v>-0.2765</v>
+        <v>-0.27650000000000002</v>
       </c>
       <c r="U7">
-        <v>0.3323</v>
+        <v>0.33229999999999998</v>
       </c>
       <c r="V7">
-        <v>0.6184210530000001</v>
+        <v>0.61842105300000005</v>
       </c>
       <c r="W7">
-        <v>1.340396697</v>
+        <v>1.3403966970000001</v>
       </c>
       <c r="X7">
         <v>1.48765112</v>
       </c>
       <c r="Y7">
-        <v>0.814814815</v>
+        <v>0.81481481499999997</v>
       </c>
       <c r="Z7">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA7">
-        <v>0.574074074</v>
+        <v>0.57407407399999999</v>
       </c>
       <c r="AB7">
-        <v>0.272727273</v>
+        <v>0.27272727299999999</v>
       </c>
       <c r="AC7">
         <v>0.10633716</v>
       </c>
       <c r="AD7">
-        <v>0.630409648</v>
+        <v>0.63040964799999999</v>
       </c>
       <c r="AE7">
-        <v>7.285631158744374</v>
+        <v>7.2856311587443736</v>
       </c>
       <c r="AF7">
-        <v>0.085127385</v>
+        <v>8.5127385E-2</v>
       </c>
       <c r="AG7">
         <v>4.615384615</v>
@@ -4430,46 +4495,46 @@
         <v>2.615384615</v>
       </c>
       <c r="AI7">
-        <v>0.250096369</v>
+        <v>0.25009636899999999</v>
       </c>
       <c r="AJ7">
-        <v>-0.14571964</v>
+        <v>-0.14571964000000001</v>
       </c>
       <c r="AK7">
-        <v>-0.219922999</v>
+        <v>-0.21992299900000001</v>
       </c>
       <c r="AL7">
-        <v>-0.004064264</v>
+        <v>-4.0642639999999997E-3</v>
       </c>
       <c r="AM7">
         <v>1.420202527</v>
       </c>
       <c r="AN7">
-        <v>1.505403191</v>
+        <v>1.5054031910000001</v>
       </c>
       <c r="AO7">
         <v>1.357543095</v>
       </c>
       <c r="AP7">
-        <v>-0.06773222</v>
+        <v>-6.7732219999999996E-2</v>
       </c>
       <c r="AQ7">
         <v>0.454197089</v>
       </c>
       <c r="AR7">
-        <v>-0.356313503</v>
+        <v>-0.35631350299999998</v>
       </c>
       <c r="AS7">
-        <v>0.276040735</v>
+        <v>0.27604073499999998</v>
       </c>
       <c r="AT7">
-        <v>0.400327785</v>
+        <v>0.40032778499999999</v>
       </c>
       <c r="AU7">
-        <v>-0.07595286900000001</v>
+        <v>-7.5952869000000006E-2</v>
       </c>
       <c r="AV7">
-        <v>-0.020442713</v>
+        <v>-2.0442713000000001E-2</v>
       </c>
       <c r="AW7">
         <v>0.393975833</v>
@@ -4478,55 +4543,55 @@
         <v>-0.280808059</v>
       </c>
       <c r="AY7">
-        <v>-0.181807652</v>
+        <v>-0.18180765199999999</v>
       </c>
       <c r="AZ7">
         <v>-0.216150011</v>
       </c>
       <c r="BA7">
-        <v>-0.430319261</v>
+        <v>-0.43031926100000001</v>
       </c>
       <c r="BB7">
         <v>0.215527054</v>
       </c>
       <c r="BC7">
-        <v>0.369684692</v>
+        <v>0.36968469199999998</v>
       </c>
       <c r="BD7">
-        <v>0.184871795</v>
+        <v>0.18487179500000001</v>
       </c>
       <c r="BE7">
-        <v>0.106923077</v>
+        <v>0.10692307700000001</v>
       </c>
       <c r="BF7">
-        <v>0.106410256</v>
+        <v>0.10641025599999999</v>
       </c>
       <c r="BG7">
-        <v>0.061282051</v>
+        <v>6.1282050999999997E-2</v>
       </c>
       <c r="BH7">
-        <v>0.093589744</v>
+        <v>9.3589744000000002E-2</v>
       </c>
       <c r="BI7">
-        <v>0.027435897</v>
+        <v>2.7435897000000001E-2</v>
       </c>
       <c r="BJ7">
-        <v>0.064615385</v>
+        <v>6.4615384999999997E-2</v>
       </c>
       <c r="BK7">
         <v>0.116923077</v>
       </c>
       <c r="BL7">
-        <v>0.09307692300000001</v>
+        <v>9.3076923000000006E-2</v>
       </c>
       <c r="BM7">
-        <v>0.09487179499999999</v>
+        <v>9.4871794999999995E-2</v>
       </c>
       <c r="BN7">
-        <v>0.00025641</v>
+        <v>2.5640999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2985</v>
       </c>
@@ -4576,73 +4641,73 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.088904999</v>
+        <v>8.8904998999999998E-2</v>
       </c>
       <c r="R8">
-        <v>4.588298133829489</v>
+        <v>4.5882981338294888</v>
       </c>
       <c r="S8">
-        <v>0.407922639</v>
+        <v>0.40792263899999998</v>
       </c>
       <c r="T8">
-        <v>-0.2713</v>
+        <v>-0.27129999999999999</v>
       </c>
       <c r="U8">
-        <v>0.3437</v>
+        <v>0.34370000000000001</v>
       </c>
       <c r="V8">
-        <v>0.6315789469999999</v>
+        <v>0.63157894699999995</v>
       </c>
       <c r="W8">
-        <v>1.3278642</v>
+        <v>1.3278642000000001</v>
       </c>
       <c r="X8">
-        <v>1.563974659</v>
+        <v>1.5639746590000001</v>
       </c>
       <c r="Y8">
-        <v>0.833333333</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="Z8">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA8">
         <v>0.592592593</v>
       </c>
       <c r="AB8">
-        <v>0.272727273</v>
+        <v>0.27272727299999999</v>
       </c>
       <c r="AC8">
-        <v>0.136014327</v>
+        <v>0.13601432699999999</v>
       </c>
       <c r="AD8">
-        <v>0.633429435</v>
+        <v>0.63342943500000004</v>
       </c>
       <c r="AE8">
-        <v>7.009659886115177</v>
+        <v>7.0096598861151769</v>
       </c>
       <c r="AF8">
-        <v>0.09503075699999999</v>
+        <v>9.5030756999999993E-2</v>
       </c>
       <c r="AG8">
-        <v>4.833333333</v>
+        <v>4.8333333329999997</v>
       </c>
       <c r="AH8">
         <v>2.5</v>
       </c>
       <c r="AI8">
-        <v>0.305187678</v>
+        <v>0.30518767800000002</v>
       </c>
       <c r="AJ8">
-        <v>-0.145993327</v>
+        <v>-0.14599332700000001</v>
       </c>
       <c r="AK8">
-        <v>-0.200720772</v>
+        <v>-0.20072077199999999</v>
       </c>
       <c r="AL8">
-        <v>-0.006604186</v>
+        <v>-6.6041859999999997E-3</v>
       </c>
       <c r="AM8">
-        <v>1.45955348</v>
+        <v>1.4595534800000001</v>
       </c>
       <c r="AN8">
         <v>1.754423734</v>
@@ -4651,43 +4716,43 @@
         <v>1.201595124</v>
       </c>
       <c r="AP8">
-        <v>0.03406833</v>
+        <v>3.4068330000000001E-2</v>
       </c>
       <c r="AQ8">
-        <v>0.322066158</v>
+        <v>0.32206615799999999</v>
       </c>
       <c r="AR8">
-        <v>-0.554081859</v>
+        <v>-0.55408185899999995</v>
       </c>
       <c r="AS8">
-        <v>0.276653126</v>
+        <v>0.27665312600000003</v>
       </c>
       <c r="AT8">
-        <v>0.08239521900000001</v>
+        <v>8.2395219000000006E-2</v>
       </c>
       <c r="AU8">
-        <v>-0.087785246</v>
+        <v>-8.7785245999999997E-2</v>
       </c>
       <c r="AV8">
-        <v>-0.01729877</v>
+        <v>-1.7298770000000002E-2</v>
       </c>
       <c r="AW8">
-        <v>0.385829627</v>
+        <v>0.38582962700000001</v>
       </c>
       <c r="AX8">
-        <v>-0.271962296</v>
+        <v>-0.27196229599999999</v>
       </c>
       <c r="AY8">
-        <v>-0.03930245</v>
+        <v>-3.9302450000000003E-2</v>
       </c>
       <c r="AZ8">
         <v>-0.210567909</v>
       </c>
       <c r="BA8">
-        <v>-0.502206846</v>
+        <v>-0.50220684599999998</v>
       </c>
       <c r="BB8">
-        <v>0.337859663</v>
+        <v>0.33785966299999998</v>
       </c>
       <c r="BC8">
         <v>0.169632277</v>
@@ -4699,34 +4764,34 @@
         <v>0.147179487</v>
       </c>
       <c r="BF8">
-        <v>0.058461538</v>
+        <v>5.8461538E-2</v>
       </c>
       <c r="BG8">
-        <v>0.044615385</v>
+        <v>4.4615385E-2</v>
       </c>
       <c r="BH8">
         <v>0.143846154</v>
       </c>
       <c r="BI8">
-        <v>0.03974359</v>
+        <v>3.9743590000000002E-2</v>
       </c>
       <c r="BJ8">
-        <v>0.068717949</v>
+        <v>6.8717949E-2</v>
       </c>
       <c r="BK8">
-        <v>0.132564103</v>
+        <v>0.13256410299999999</v>
       </c>
       <c r="BL8">
-        <v>0.078461538</v>
+        <v>7.8461537999999997E-2</v>
       </c>
       <c r="BM8">
-        <v>0.05974359</v>
+        <v>5.9743589999999999E-2</v>
       </c>
       <c r="BN8">
-        <v>0.001282051</v>
+        <v>1.282051E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2545</v>
       </c>
@@ -4779,49 +4844,49 @@
         <v>0.100880412</v>
       </c>
       <c r="R9">
-        <v>4.507648955135762</v>
+        <v>4.5076489551357621</v>
       </c>
       <c r="S9">
-        <v>0.454733485</v>
+        <v>0.45473348499999999</v>
       </c>
       <c r="T9">
-        <v>-0.289</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="U9">
-        <v>0.3247</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="V9">
-        <v>0.6315789469999999</v>
+        <v>0.63157894699999995</v>
       </c>
       <c r="W9">
-        <v>1.395607003</v>
+        <v>1.3956070030000001</v>
       </c>
       <c r="X9">
         <v>1.529629438</v>
       </c>
       <c r="Y9">
-        <v>0.833333333</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="Z9">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA9">
-        <v>0.555555556</v>
+        <v>0.55555555599999995</v>
       </c>
       <c r="AB9">
-        <v>0.272727273</v>
+        <v>0.27272727299999999</v>
       </c>
       <c r="AC9">
-        <v>0.105239038</v>
+        <v>0.10523903799999999</v>
       </c>
       <c r="AD9">
-        <v>0.672183967</v>
+        <v>0.67218396700000005</v>
       </c>
       <c r="AE9">
-        <v>6.928229740652458</v>
+        <v>6.9282297406524576</v>
       </c>
       <c r="AF9">
-        <v>0.100031925</v>
+        <v>0.10003192499999999</v>
       </c>
       <c r="AG9">
         <v>4.692307692</v>
@@ -4830,103 +4895,103 @@
         <v>2.615384615</v>
       </c>
       <c r="AI9">
-        <v>0.234985774</v>
+        <v>0.23498577400000001</v>
       </c>
       <c r="AJ9">
-        <v>-0.151576311</v>
+        <v>-0.15157631099999999</v>
       </c>
       <c r="AK9">
-        <v>-0.216167437</v>
+        <v>-0.21616743699999999</v>
       </c>
       <c r="AL9">
-        <v>-0.004507418</v>
+        <v>-4.507418E-3</v>
       </c>
       <c r="AM9">
-        <v>1.502686412</v>
+        <v>1.5026864120000001</v>
       </c>
       <c r="AN9">
         <v>1.710854893</v>
       </c>
       <c r="AO9">
-        <v>1.432044733</v>
+        <v>1.4320447329999999</v>
       </c>
       <c r="AP9">
-        <v>-0.005927708</v>
+        <v>-5.9277080000000003E-3</v>
       </c>
       <c r="AQ9">
-        <v>0.180772688</v>
+        <v>0.18077268799999999</v>
       </c>
       <c r="AR9">
-        <v>-0.320807692</v>
+        <v>-0.32080769199999998</v>
       </c>
       <c r="AS9">
         <v>0.345160038</v>
       </c>
       <c r="AT9">
-        <v>0.07079684999999999</v>
+        <v>7.0796849999999995E-2</v>
       </c>
       <c r="AU9">
-        <v>-0.07933251199999999</v>
+        <v>-7.9332511999999994E-2</v>
       </c>
       <c r="AV9">
-        <v>-0.014182203</v>
+        <v>-1.4182203000000001E-2</v>
       </c>
       <c r="AW9">
-        <v>0.488820355</v>
+        <v>0.48882035499999998</v>
       </c>
       <c r="AX9">
         <v>-0.235485314</v>
       </c>
       <c r="AY9">
-        <v>-0.035926746</v>
+        <v>-3.5926746000000002E-2</v>
       </c>
       <c r="AZ9">
         <v>-0.209485319</v>
       </c>
       <c r="BA9">
-        <v>-0.420217725</v>
+        <v>-0.42021772499999999</v>
       </c>
       <c r="BB9">
-        <v>0.186083816</v>
+        <v>0.18608381600000001</v>
       </c>
       <c r="BC9">
         <v>0.171657693</v>
       </c>
       <c r="BD9">
-        <v>0.161538462</v>
+        <v>0.16153846199999999</v>
       </c>
       <c r="BE9">
-        <v>0.134358974</v>
+        <v>0.13435897399999999</v>
       </c>
       <c r="BF9">
-        <v>0.048974359</v>
+        <v>4.8974359000000002E-2</v>
       </c>
       <c r="BG9">
-        <v>0.037948718</v>
+        <v>3.7948717999999999E-2</v>
       </c>
       <c r="BH9">
-        <v>0.157948718</v>
+        <v>0.15794871799999999</v>
       </c>
       <c r="BI9">
-        <v>0.040512821</v>
+        <v>4.0512820999999997E-2</v>
       </c>
       <c r="BJ9">
-        <v>0.060769231</v>
+        <v>6.0769231E-2</v>
       </c>
       <c r="BK9">
-        <v>0.148717949</v>
+        <v>0.14871794899999999</v>
       </c>
       <c r="BL9">
-        <v>0.085641026</v>
+        <v>8.5641025999999995E-2</v>
       </c>
       <c r="BM9">
-        <v>0.07025641000000001</v>
+        <v>7.0256410000000005E-2</v>
       </c>
       <c r="BN9">
-        <v>0.001025641</v>
+        <v>1.0256410000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2943</v>
       </c>
@@ -4979,49 +5044,49 @@
         <v>0.12404379</v>
       </c>
       <c r="R10">
-        <v>5.304386883901961</v>
+        <v>5.3043868839019606</v>
       </c>
       <c r="S10">
-        <v>0.657976251</v>
+        <v>0.65797625100000001</v>
       </c>
       <c r="T10">
-        <v>-0.2222</v>
+        <v>-0.22220000000000001</v>
       </c>
       <c r="U10">
-        <v>0.3444</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="V10">
-        <v>0.6315789469999999</v>
+        <v>0.63157894699999995</v>
       </c>
       <c r="W10">
-        <v>1.348863727</v>
+        <v>1.3488637269999999</v>
       </c>
       <c r="X10">
-        <v>1.166898383</v>
+        <v>1.1668983829999999</v>
       </c>
       <c r="Y10">
-        <v>0.833333333</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="Z10">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA10">
-        <v>0.574074074</v>
+        <v>0.57407407399999999</v>
       </c>
       <c r="AB10">
-        <v>0.454545455</v>
+        <v>0.45454545499999999</v>
       </c>
       <c r="AC10">
-        <v>0.084011037</v>
+        <v>8.4011036999999997E-2</v>
       </c>
       <c r="AD10">
-        <v>0.481705694</v>
+        <v>0.48170569400000002</v>
       </c>
       <c r="AE10">
-        <v>8.568111953212762</v>
+        <v>8.5681119532127621</v>
       </c>
       <c r="AF10">
-        <v>0.052820321</v>
+        <v>5.2820321000000003E-2</v>
       </c>
       <c r="AG10">
         <v>3.375</v>
@@ -5030,34 +5095,34 @@
         <v>1.75</v>
       </c>
       <c r="AI10">
-        <v>0.19069556</v>
+        <v>0.19069555999999999</v>
       </c>
       <c r="AJ10">
         <v>-0.112010557</v>
       </c>
       <c r="AK10">
-        <v>-0.158815007</v>
+        <v>-0.15881500700000001</v>
       </c>
       <c r="AL10">
-        <v>0.004502099</v>
+        <v>4.5020989999999999E-3</v>
       </c>
       <c r="AM10">
-        <v>1.272411904</v>
+        <v>1.2724119039999999</v>
       </c>
       <c r="AN10">
-        <v>1.527158025</v>
+        <v>1.5271580250000001</v>
       </c>
       <c r="AO10">
-        <v>1.042338106</v>
+        <v>1.0423381060000001</v>
       </c>
       <c r="AP10">
-        <v>-0.07495566100000001</v>
+        <v>-7.4955661000000007E-2</v>
       </c>
       <c r="AQ10">
-        <v>0.436012963</v>
+        <v>0.43601296299999998</v>
       </c>
       <c r="AR10">
-        <v>-0.484743027</v>
+        <v>-0.48474302699999999</v>
       </c>
       <c r="AS10">
         <v>0.154302888</v>
@@ -5066,67 +5131,67 @@
         <v>0.197548318</v>
       </c>
       <c r="AU10">
-        <v>-0.053700596</v>
+        <v>-5.3700596000000003E-2</v>
       </c>
       <c r="AV10">
-        <v>-0.047170112</v>
+        <v>-4.7170112E-2</v>
       </c>
       <c r="AW10">
-        <v>0.042598895</v>
+        <v>4.2598894999999998E-2</v>
       </c>
       <c r="AX10">
-        <v>-0.399789254</v>
+        <v>-0.39978925399999998</v>
       </c>
       <c r="AY10">
-        <v>-0.08741294400000001</v>
+        <v>-8.7412944000000006E-2</v>
       </c>
       <c r="AZ10">
         <v>-0.200358376</v>
       </c>
       <c r="BA10">
-        <v>-0.369274794</v>
+        <v>-0.36927479400000002</v>
       </c>
       <c r="BB10">
         <v>0.349307704</v>
       </c>
       <c r="BC10">
-        <v>0.205215573</v>
+        <v>0.20521557300000001</v>
       </c>
       <c r="BD10">
         <v>0.162307692</v>
       </c>
       <c r="BE10">
-        <v>0.091282051</v>
+        <v>9.1282051000000003E-2</v>
       </c>
       <c r="BF10">
-        <v>0.06282051299999999</v>
+        <v>6.2820512999999994E-2</v>
       </c>
       <c r="BG10">
         <v>0.123589744</v>
       </c>
       <c r="BH10">
-        <v>0.145128205</v>
+        <v>0.14512820500000001</v>
       </c>
       <c r="BI10">
-        <v>0.071282051</v>
+        <v>7.1282050999999999E-2</v>
       </c>
       <c r="BJ10">
         <v>0.09</v>
       </c>
       <c r="BK10">
-        <v>0.087948718</v>
+        <v>8.7948717999999995E-2</v>
       </c>
       <c r="BL10">
-        <v>0.07205128199999999</v>
+        <v>7.2051281999999994E-2</v>
       </c>
       <c r="BM10">
-        <v>0.044102564</v>
+        <v>4.4102563999999997E-2</v>
       </c>
       <c r="BN10">
-        <v>0.001025641</v>
+        <v>1.0256410000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2980</v>
       </c>
@@ -5176,52 +5241,52 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.082217896</v>
+        <v>8.2217895999999999E-2</v>
       </c>
       <c r="R11">
-        <v>5.301845573504505</v>
+        <v>5.3018455735045054</v>
       </c>
       <c r="S11">
-        <v>0.435906588</v>
+        <v>0.43590658799999998</v>
       </c>
       <c r="T11">
-        <v>-0.2826</v>
+        <v>-0.28260000000000002</v>
       </c>
       <c r="U11">
-        <v>0.2367</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="V11">
-        <v>0.6184210530000001</v>
+        <v>0.61842105300000005</v>
       </c>
       <c r="W11">
         <v>1.196283167</v>
       </c>
       <c r="X11">
-        <v>1.417471064</v>
+        <v>1.4174710639999999</v>
       </c>
       <c r="Y11">
-        <v>0.814814815</v>
+        <v>0.81481481499999997</v>
       </c>
       <c r="Z11">
-        <v>0.863636364</v>
+        <v>0.86363636399999999</v>
       </c>
       <c r="AA11">
-        <v>0.555555556</v>
+        <v>0.55555555599999995</v>
       </c>
       <c r="AB11">
-        <v>0.318181818</v>
+        <v>0.31818181800000001</v>
       </c>
       <c r="AC11">
         <v>0.101141358</v>
       </c>
       <c r="AD11">
-        <v>0.5602359180000001</v>
+        <v>0.56023591800000005</v>
       </c>
       <c r="AE11">
         <v>8.821175273585883</v>
       </c>
       <c r="AF11">
-        <v>0.089907378</v>
+        <v>8.9907377999999996E-2</v>
       </c>
       <c r="AG11">
         <v>4.846153846</v>
@@ -5236,49 +5301,49 @@
         <v>-0.1418587</v>
       </c>
       <c r="AK11">
-        <v>-0.21929921</v>
+        <v>-0.21929920999999999</v>
       </c>
       <c r="AL11">
-        <v>-0.00575578</v>
+        <v>-5.7557800000000003E-3</v>
       </c>
       <c r="AM11">
-        <v>1.301283841</v>
+        <v>1.3012838410000001</v>
       </c>
       <c r="AN11">
-        <v>1.293888244</v>
+        <v>1.2938882439999999</v>
       </c>
       <c r="AO11">
         <v>1.298526115</v>
       </c>
       <c r="AP11">
-        <v>-0.0087238</v>
+        <v>-8.7238000000000003E-3</v>
       </c>
       <c r="AQ11">
-        <v>0.251967415</v>
+        <v>0.25196741499999997</v>
       </c>
       <c r="AR11">
-        <v>-0.370572284</v>
+        <v>-0.37057228399999997</v>
       </c>
       <c r="AS11">
         <v>0.179350657</v>
       </c>
       <c r="AT11">
-        <v>0.076019503</v>
+        <v>7.6019503000000002E-2</v>
       </c>
       <c r="AU11">
-        <v>-0.065724676</v>
+        <v>-6.5724675999999996E-2</v>
       </c>
       <c r="AV11">
-        <v>-0.030736976</v>
+        <v>-3.0736975999999999E-2</v>
       </c>
       <c r="AW11">
         <v>0.372003466</v>
       </c>
       <c r="AX11">
-        <v>-0.266207332</v>
+        <v>-0.26620733200000002</v>
       </c>
       <c r="AY11">
-        <v>-0.035932767</v>
+        <v>-3.5932766999999997E-2</v>
       </c>
       <c r="AZ11">
         <v>-0.209350181</v>
@@ -5287,46 +5352,47 @@
         <v>-0.370877552</v>
       </c>
       <c r="BB11">
-        <v>0.289739618</v>
+        <v>0.28973961799999998</v>
       </c>
       <c r="BC11">
-        <v>0.155452524</v>
+        <v>0.15545252400000001</v>
       </c>
       <c r="BD11">
-        <v>0.161282051</v>
+        <v>0.16128205100000001</v>
       </c>
       <c r="BE11">
-        <v>0.151025641</v>
+        <v>0.15102564099999999</v>
       </c>
       <c r="BF11">
-        <v>0.061794872</v>
+        <v>6.1794872000000001E-2</v>
       </c>
       <c r="BG11">
-        <v>0.057179487</v>
+        <v>5.7179487000000001E-2</v>
       </c>
       <c r="BH11">
         <v>0.148461538</v>
       </c>
       <c r="BI11">
-        <v>0.041794872</v>
+        <v>4.1794871999999997E-2</v>
       </c>
       <c r="BJ11">
-        <v>0.08128205099999999</v>
+        <v>8.1282050999999994E-2</v>
       </c>
       <c r="BK11">
         <v>0.116410256</v>
       </c>
       <c r="BL11">
-        <v>0.07948717900000001</v>
+        <v>7.9487179000000005E-2</v>
       </c>
       <c r="BM11">
-        <v>0.064871795</v>
+        <v>6.4871794999999996E-2</v>
       </c>
       <c r="BN11">
-        <v>0.000769231</v>
+        <v>7.6923099999999999E-4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>